--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Python\Github\DailyTools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="11_AD4DA82427541F7ACA7EB8E2E80C16646BE8DE08" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{57D3E7B9-BA02-4CEC-9E18-D2F5AA171E8D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1635" windowWidth="24405" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2055" windowWidth="11970" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,11 +136,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西部得利中证500指数增强A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西部得利沪深300指数增强A</t>
+    <t>西部利得中证500指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部利得沪深300指数增强A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +494,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Python\Github\DailyTools\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B388E2FE-8DAE-4DE0-999E-32542C6A6CBA}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2055" windowWidth="11970" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="1740" windowWidth="15615" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>西部利得沪深300指数增强A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,19 +495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.25" customWidth="1"/>
@@ -513,7 +516,7 @@
     <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -521,8 +524,11 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25">
       <c r="A2"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -530,8 +536,11 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E2" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25">
       <c r="A3"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -539,8 +548,11 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E3" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25">
       <c r="A4"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -548,8 +560,11 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E4" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25">
       <c r="A5"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -557,8 +572,11 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25">
       <c r="A6"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -566,8 +584,11 @@
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E6" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25">
       <c r="A7"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -575,8 +596,11 @@
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E7" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25">
       <c r="A8"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -584,8 +608,11 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E8" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25">
       <c r="A9"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -593,8 +620,11 @@
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E9" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25">
       <c r="A10"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -602,8 +632,11 @@
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E10" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25">
       <c r="A11"/>
       <c r="C11" s="1">
         <v>163406</v>
@@ -611,8 +644,11 @@
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E11" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25">
       <c r="A12"/>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -620,8 +656,11 @@
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25">
       <c r="A13"/>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -629,14 +668,20 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E13" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25">
       <c r="A14"/>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B388E2FE-8DAE-4DE0-999E-32542C6A6CBA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3BA42C35-3E07-4B8B-9E1D-D505FB85201A}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1740" windowWidth="15615" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2400" windowWidth="21690" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3BA42C35-3E07-4B8B-9E1D-D505FB85201A}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E61485D5-018C-4C4E-992D-8542576AA052}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2400" windowWidth="21690" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,14 @@
   </si>
   <si>
     <t>Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富大中华精选混合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:XFD3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -684,6 +692,17 @@
         <v>0.08</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="17.25">
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E61485D5-018C-4C4E-992D-8542576AA052}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42CDCB96-A406-44FA-A4DB-91E9309034FC}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="2220" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,90 @@
   </si>
   <si>
     <t>国富大中华精选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004698</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景顺长城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国互联科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银新能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达蓝筹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实新能源材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏回报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国新动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +277,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="唐美人 常规体"/>
+      <family val="5"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +314,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -515,16 +607,16 @@
     <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -535,8 +627,20 @@
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25">
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -547,8 +651,20 @@
       <c r="E2" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25">
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -559,8 +675,20 @@
       <c r="E3" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25">
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25">
       <c r="A4"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -571,8 +699,20 @@
       <c r="E4" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25">
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25">
       <c r="A5"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -583,8 +723,20 @@
       <c r="E5" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25">
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25">
       <c r="A6"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -595,8 +747,20 @@
       <c r="E6" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25">
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25">
       <c r="A7"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -607,8 +771,20 @@
       <c r="E7" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25">
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25">
       <c r="A8"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -619,8 +795,20 @@
       <c r="E8" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25">
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -631,8 +819,20 @@
       <c r="E9" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25">
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -643,8 +843,20 @@
       <c r="E10" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25">
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25">
       <c r="A11"/>
       <c r="C11" s="1">
         <v>163406</v>
@@ -655,8 +867,20 @@
       <c r="E11" s="2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25">
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25">
       <c r="A12"/>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -667,8 +891,20 @@
       <c r="E12" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25">
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2">
+        <v>63</v>
+      </c>
+      <c r="I12" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25">
       <c r="A13"/>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -679,8 +915,20 @@
       <c r="E13" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25">
+      <c r="F13" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2">
+        <v>35</v>
+      </c>
+      <c r="I13" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25">
       <c r="A14"/>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -691,8 +939,20 @@
       <c r="E14" s="2">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.25">
+      <c r="F14" s="2">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25">
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
@@ -701,6 +961,271 @@
       </c>
       <c r="E15" s="2">
         <v>0.15</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>63</v>
+      </c>
+      <c r="I15" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="16.5">
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2">
+        <v>63</v>
+      </c>
+      <c r="I17" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="16.5">
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>23</v>
+      </c>
+      <c r="H18" s="2">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="16.5">
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2">
+        <v>50</v>
+      </c>
+      <c r="I19" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="16.5">
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2">
+        <v>50</v>
+      </c>
+      <c r="I20" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="16.5">
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2">
+        <v>50</v>
+      </c>
+      <c r="I21" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="16.5">
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>23</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="16.5">
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
+        <v>23</v>
+      </c>
+      <c r="H23" s="2">
+        <v>50</v>
+      </c>
+      <c r="I23" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="16.5">
+      <c r="C24" s="4">
+        <v>161725</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
+        <v>25</v>
+      </c>
+      <c r="H24" s="2">
+        <v>55</v>
+      </c>
+      <c r="I24" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="16.5">
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2">
+        <v>50</v>
+      </c>
+      <c r="I25" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="16.5">
+      <c r="C26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2">
+        <v>23</v>
+      </c>
+      <c r="H26" s="2">
+        <v>50</v>
+      </c>
+      <c r="I26" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42CDCB96-A406-44FA-A4DB-91E9309034FC}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061D1D46-D5B4-45FF-8792-8C93D032BC31}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="2220" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="4035" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,22 @@
   </si>
   <si>
     <t>富国新动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +614,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -608,8 +624,10 @@
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
@@ -627,17 +645,17 @@
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2">
-        <v>3</v>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061D1D46-D5B4-45FF-8792-8C93D032BC31}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C675B9C6-2BA5-4E55-92F4-054F2F4EE118}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="4035" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -913,13 +913,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I12" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25">
@@ -984,13 +984,13 @@
         <v>10</v>
       </c>
       <c r="G15" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I15" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C675B9C6-2BA5-4E55-92F4-054F2F4EE118}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805B721D-FFB2-483A-BB1B-AEBC8232CF21}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>005609</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招商酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘉实新能源材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>富国军工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +221,6 @@
   </si>
   <si>
     <t>华夏回报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国新动力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -611,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -646,16 +630,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25">
@@ -998,7 +982,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2">
         <v>0.15</v>
@@ -1021,7 +1005,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2">
         <v>0.15</v>
@@ -1044,7 +1028,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2">
         <v>0.15</v>
@@ -1067,7 +1051,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2">
         <v>0.15</v>
@@ -1090,7 +1074,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2">
         <v>0.15</v>
@@ -1113,7 +1097,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2">
         <v>0.15</v>
@@ -1136,7 +1120,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2">
         <v>0.15</v>
@@ -1155,94 +1139,48 @@
       </c>
     </row>
     <row r="23" spans="3:9" ht="16.5">
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="4">
+        <v>161725</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2">
+        <v>55</v>
+      </c>
+      <c r="I23" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="16.5">
+      <c r="C24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F23" s="2">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="D24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
         <v>23</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>50</v>
       </c>
-      <c r="I23" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="16.5">
-      <c r="C24" s="4">
-        <v>161725</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>15</v>
-      </c>
-      <c r="G24" s="2">
-        <v>25</v>
-      </c>
-      <c r="H24" s="2">
-        <v>55</v>
-      </c>
       <c r="I24" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="16.5">
-      <c r="C25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F25" s="2">
-        <v>10</v>
-      </c>
-      <c r="G25" s="2">
-        <v>23</v>
-      </c>
-      <c r="H25" s="2">
-        <v>50</v>
-      </c>
-      <c r="I25" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="16.5">
-      <c r="C26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F26" s="2">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2">
-        <v>23</v>
-      </c>
-      <c r="H26" s="2">
-        <v>50</v>
-      </c>
-      <c r="I26" s="2">
         <v>103</v>
       </c>
     </row>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805B721D-FFB2-483A-BB1B-AEBC8232CF21}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191447F7-C9EE-44F0-A81B-6772EE3DDE35}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="2730" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001166</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002190</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +193,6 @@
   </si>
   <si>
     <t>富国互联科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建信环保</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -595,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C19" sqref="A19:XFD19"/>
+      <selection activeCell="C16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -630,16 +622,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25">
@@ -982,7 +974,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2">
         <v>0.15</v>
@@ -991,13 +983,13 @@
         <v>10</v>
       </c>
       <c r="G16" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="16.5">
@@ -1005,7 +997,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2">
         <v>0.15</v>
@@ -1014,13 +1006,13 @@
         <v>10</v>
       </c>
       <c r="G17" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H17" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I17" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="16.5">
@@ -1028,7 +1020,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2">
         <v>0.15</v>
@@ -1051,7 +1043,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2">
         <v>0.15</v>
@@ -1074,7 +1066,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2">
         <v>0.15</v>
@@ -1097,7 +1089,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2">
         <v>0.15</v>
@@ -1116,71 +1108,48 @@
       </c>
     </row>
     <row r="22" spans="3:9" ht="16.5">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="4">
+        <v>161725</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="16.5">
+      <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F22" s="2">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
         <v>23</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H23" s="2">
         <v>50</v>
       </c>
-      <c r="I22" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="16.5">
-      <c r="C23" s="4">
-        <v>161725</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>15</v>
-      </c>
-      <c r="G23" s="2">
-        <v>25</v>
-      </c>
-      <c r="H23" s="2">
-        <v>55</v>
-      </c>
       <c r="I23" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="16.5">
-      <c r="C24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F24" s="2">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2">
-        <v>23</v>
-      </c>
-      <c r="H24" s="2">
-        <v>50</v>
-      </c>
-      <c r="I24" s="2">
         <v>103</v>
       </c>
     </row>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191447F7-C9EE-44F0-A81B-6772EE3DDE35}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB2299E-A034-468F-A477-6B82D12F5EBF}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2730" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>004698</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>006751</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,10 +201,6 @@
   </si>
   <si>
     <t>富国军工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时军工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -587,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="A16:XFD16"/>
+      <selection activeCell="C19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -622,16 +614,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25">
@@ -974,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2">
         <v>0.15</v>
@@ -997,7 +989,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2">
         <v>0.15</v>
@@ -1020,7 +1012,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2">
         <v>0.15</v>
@@ -1043,7 +1035,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2">
         <v>0.15</v>
@@ -1066,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2">
         <v>0.15</v>
@@ -1085,71 +1077,48 @@
       </c>
     </row>
     <row r="21" spans="3:9" ht="16.5">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="4">
+        <v>161725</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>25</v>
+      </c>
+      <c r="H21" s="2">
+        <v>55</v>
+      </c>
+      <c r="I21" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="16.5">
+      <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F21" s="2">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
         <v>23</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <v>50</v>
       </c>
-      <c r="I21" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="16.5">
-      <c r="C22" s="4">
-        <v>161725</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>15</v>
-      </c>
-      <c r="G22" s="2">
-        <v>25</v>
-      </c>
-      <c r="H22" s="2">
-        <v>55</v>
-      </c>
       <c r="I22" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="16.5">
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F23" s="2">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2">
-        <v>23</v>
-      </c>
-      <c r="H23" s="2">
-        <v>50</v>
-      </c>
-      <c r="I23" s="2">
         <v>103</v>
       </c>
     </row>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB2299E-A034-468F-A477-6B82D12F5EBF}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B388F54-DC49-4DB2-AE01-94849AA2827E}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,10 @@
   </si>
   <si>
     <t>Three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,6 +303,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -579,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C19" sqref="A19:XFD19"/>
+      <selection activeCell="C21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -596,13 +609,13 @@
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="10" max="10" width="5.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -625,8 +638,11 @@
       <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25">
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -647,10 +663,13 @@
         <v>63</v>
       </c>
       <c r="I2" s="2">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25">
+    <row r="3" spans="1:10" ht="17.25">
       <c r="A3"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -671,10 +690,13 @@
         <v>50</v>
       </c>
       <c r="I3" s="2">
+        <v>96</v>
+      </c>
+      <c r="J3" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25">
+    <row r="4" spans="1:10" ht="17.25">
       <c r="A4"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -695,10 +717,13 @@
         <v>63</v>
       </c>
       <c r="I4" s="2">
+        <v>110</v>
+      </c>
+      <c r="J4" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25">
+    <row r="5" spans="1:10" ht="17.25">
       <c r="A5"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -719,10 +744,13 @@
         <v>63</v>
       </c>
       <c r="I5" s="2">
+        <v>110</v>
+      </c>
+      <c r="J5" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -743,10 +771,13 @@
         <v>63</v>
       </c>
       <c r="I6" s="2">
+        <v>110</v>
+      </c>
+      <c r="J6" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -767,10 +798,13 @@
         <v>50</v>
       </c>
       <c r="I7" s="2">
+        <v>96</v>
+      </c>
+      <c r="J7" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25">
+    <row r="8" spans="1:10" ht="17.25">
       <c r="A8"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -791,10 +825,13 @@
         <v>63</v>
       </c>
       <c r="I8" s="2">
+        <v>110</v>
+      </c>
+      <c r="J8" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25">
+    <row r="9" spans="1:10" ht="17.25">
       <c r="A9"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -815,10 +852,13 @@
         <v>63</v>
       </c>
       <c r="I9" s="2">
+        <v>110</v>
+      </c>
+      <c r="J9" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25">
+    <row r="10" spans="1:10" ht="17.25">
       <c r="A10"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -839,34 +879,39 @@
         <v>63</v>
       </c>
       <c r="I10" s="2">
+        <v>110</v>
+      </c>
+      <c r="J10" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25">
-      <c r="A11"/>
-      <c r="C11" s="1">
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="17.25">
+      <c r="C11" s="6">
         <v>163406</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="7">
         <v>0.12</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="7">
         <v>12</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="7">
         <v>20</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="7">
         <v>45</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="7">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25">
+      <c r="J11" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25">
       <c r="A12"/>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -881,64 +926,71 @@
         <v>10</v>
       </c>
       <c r="G12" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25">
-      <c r="A13"/>
-      <c r="C13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="17.25">
+      <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
         <v>0.1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="7">
         <v>15</v>
       </c>
-      <c r="G13" s="2">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2">
-        <v>35</v>
-      </c>
-      <c r="I13" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25">
-      <c r="A14"/>
-      <c r="C14" s="1" t="s">
+      <c r="G13" s="7">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7">
+        <v>75</v>
+      </c>
+      <c r="J13" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="17.25">
+      <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
         <v>0.08</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="7">
         <v>18</v>
       </c>
-      <c r="G14" s="2">
-        <v>18</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="7">
         <v>31</v>
       </c>
-      <c r="I14" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25">
+      <c r="H14" s="7">
+        <v>43</v>
+      </c>
+      <c r="I14" s="7">
+        <v>81</v>
+      </c>
+      <c r="J14" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.25">
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
@@ -958,10 +1010,13 @@
         <v>50</v>
       </c>
       <c r="I15" s="2">
+        <v>96</v>
+      </c>
+      <c r="J15" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:10" ht="16.5">
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
@@ -981,10 +1036,13 @@
         <v>63</v>
       </c>
       <c r="I16" s="2">
+        <v>110</v>
+      </c>
+      <c r="J16" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="16.5">
+    <row r="17" spans="1:10" ht="16.5">
       <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1004,10 +1062,13 @@
         <v>50</v>
       </c>
       <c r="I17" s="2">
+        <v>96</v>
+      </c>
+      <c r="J17" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="16.5">
+    <row r="18" spans="1:10" ht="16.5">
       <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1027,10 +1088,13 @@
         <v>50</v>
       </c>
       <c r="I18" s="2">
+        <v>96</v>
+      </c>
+      <c r="J18" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="16.5">
+    <row r="19" spans="1:10" ht="16.5">
       <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
@@ -1050,10 +1114,13 @@
         <v>50</v>
       </c>
       <c r="I19" s="2">
+        <v>96</v>
+      </c>
+      <c r="J19" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="16.5">
+    <row r="20" spans="1:10" ht="16.5">
       <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1073,33 +1140,40 @@
         <v>50</v>
       </c>
       <c r="I20" s="2">
+        <v>96</v>
+      </c>
+      <c r="J20" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="16.5">
-      <c r="C21" s="4">
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="16.5">
+      <c r="A21" s="8"/>
+      <c r="C21" s="9">
         <v>161725</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="7">
         <v>0.1</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="7">
         <v>15</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="7">
         <v>25</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="7">
         <v>55</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="7">
+        <v>95</v>
+      </c>
+      <c r="J21" s="7">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="16.5">
+    <row r="22" spans="1:10" ht="16.5">
       <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
@@ -1119,6 +1193,9 @@
         <v>50</v>
       </c>
       <c r="I22" s="2">
+        <v>96</v>
+      </c>
+      <c r="J22" s="2">
         <v>103</v>
       </c>
     </row>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B388F54-DC49-4DB2-AE01-94849AA2827E}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E44FAAD0-022F-4264-9350-F7E80FF514C5}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="A21:XFD21"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -952,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -978,7 +978,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E44FAAD0-022F-4264-9350-F7E80FF514C5}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFF5A0E-591A-44DF-BE1E-A7B0816A0D02}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>006751</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>260108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,10 +181,6 @@
   </si>
   <si>
     <t>景顺长城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国互联科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +264,14 @@
       <family val="5"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,6 +312,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -592,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -627,19 +628,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
@@ -657,16 +658,16 @@
         <v>10</v>
       </c>
       <c r="G2" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J2" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25">
@@ -711,16 +712,16 @@
         <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J4" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
@@ -738,16 +739,16 @@
         <v>10</v>
       </c>
       <c r="G5" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J5" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25">
@@ -765,16 +766,16 @@
         <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I6" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J6" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25">
@@ -819,16 +820,16 @@
         <v>10</v>
       </c>
       <c r="G8" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I8" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J8" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25">
@@ -846,16 +847,16 @@
         <v>10</v>
       </c>
       <c r="G9" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J9" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
@@ -873,16 +874,16 @@
         <v>10</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J10" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" ht="17.25">
@@ -926,16 +927,16 @@
         <v>10</v>
       </c>
       <c r="G12" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I12" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J12" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="5" customFormat="1" ht="17.25">
@@ -1021,7 +1022,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2">
         <v>0.15</v>
@@ -1030,16 +1031,16 @@
         <v>10</v>
       </c>
       <c r="G16" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H16" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I16" s="2">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J16" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5">
@@ -1047,7 +1048,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2">
         <v>0.15</v>
@@ -1056,16 +1057,16 @@
         <v>10</v>
       </c>
       <c r="G17" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="2">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5">
@@ -1073,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2">
         <v>0.15</v>
@@ -1099,7 +1100,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2">
         <v>0.15</v>
@@ -1108,96 +1109,73 @@
         <v>10</v>
       </c>
       <c r="G19" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H19" s="2">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I19" s="2">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5">
-      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="16.5">
+      <c r="A20" s="8"/>
+      <c r="C20" s="9">
+        <v>161725</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7">
+        <v>25</v>
+      </c>
+      <c r="H20" s="7">
+        <v>55</v>
+      </c>
+      <c r="I20" s="7">
+        <v>95</v>
+      </c>
+      <c r="J20" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5">
+      <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F20" s="2">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2">
-        <v>23</v>
-      </c>
-      <c r="H20" s="2">
-        <v>50</v>
-      </c>
-      <c r="I20" s="2">
-        <v>96</v>
-      </c>
-      <c r="J20" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="16.5">
-      <c r="A21" s="8"/>
-      <c r="C21" s="9">
-        <v>161725</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7">
-        <v>25</v>
-      </c>
-      <c r="H21" s="7">
-        <v>55</v>
-      </c>
-      <c r="I21" s="7">
-        <v>95</v>
-      </c>
-      <c r="J21" s="7">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5">
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F22" s="2">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
-        <v>23</v>
-      </c>
-      <c r="H22" s="2">
-        <v>50</v>
-      </c>
-      <c r="I22" s="2">
-        <v>96</v>
-      </c>
-      <c r="J22" s="2">
-        <v>103</v>
-      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2">
+        <v>23</v>
+      </c>
+      <c r="J21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="I26" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFF5A0E-591A-44DF-BE1E-A7B0816A0D02}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA107039-7401-4C2B-A26D-4161EE81B0F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -956,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
         <v>75</v>
@@ -982,13 +982,13 @@
         <v>18</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
+        <v>68</v>
+      </c>
+      <c r="J14" s="7">
         <v>81</v>
-      </c>
-      <c r="J14" s="7">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA107039-7401-4C2B-A26D-4161EE81B0F6}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E784B67-2981-4FFC-8859-A74ED3F3E51A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>005609</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>260108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +185,6 @@
   </si>
   <si>
     <t>易方达蓝筹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国军工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -593,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -628,19 +620,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
@@ -682,19 +674,19 @@
         <v>0.15</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25">
@@ -1005,16 +997,16 @@
         <v>10</v>
       </c>
       <c r="G15" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5">
@@ -1022,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2">
         <v>0.15</v>
@@ -1048,7 +1040,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2">
         <v>0.15</v>
@@ -1074,7 +1066,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2">
         <v>0.15</v>
@@ -1083,99 +1075,73 @@
         <v>10</v>
       </c>
       <c r="G18" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H18" s="2">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I18" s="2">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5">
-      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="16.5">
+      <c r="A19" s="8"/>
+      <c r="C19" s="9">
+        <v>161725</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7">
+        <v>25</v>
+      </c>
+      <c r="H19" s="7">
+        <v>55</v>
+      </c>
+      <c r="I19" s="7">
+        <v>95</v>
+      </c>
+      <c r="J19" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5">
+      <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F19" s="2">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2">
-        <v>10</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
         <v>16</v>
       </c>
-      <c r="I19" s="2">
-        <v>23</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I20" s="2">
+        <v>23</v>
+      </c>
+      <c r="J20" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="16.5">
-      <c r="A20" s="8"/>
-      <c r="C20" s="9">
-        <v>161725</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="7">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7">
-        <v>25</v>
-      </c>
-      <c r="H20" s="7">
-        <v>55</v>
-      </c>
-      <c r="I20" s="7">
-        <v>95</v>
-      </c>
-      <c r="J20" s="7">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5">
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F21" s="2">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2">
-        <v>10</v>
-      </c>
-      <c r="H21" s="2">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2">
-        <v>23</v>
-      </c>
-      <c r="J21" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="I26" s="10"/>
+    <row r="25" spans="1:10">
+      <c r="I25" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E784B67-2981-4FFC-8859-A74ED3F3E51A}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E77BCE1C-C260-484F-B11E-40B5D7B5EB3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,15 +265,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,30 +287,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -588,12 +615,12 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
@@ -610,538 +637,538 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5">
       <c r="A1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25">
       <c r="A2"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="E2" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5">
         <v>50</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>96</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25">
       <c r="A3"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="11">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="11">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11">
         <v>16</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="11">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25">
       <c r="A4"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="E4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5">
         <v>50</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>96</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
       <c r="A5"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="E5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5">
         <v>50</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>96</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25">
       <c r="A6"/>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="E6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5">
         <v>50</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>96</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25">
       <c r="A7"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2">
-        <v>96</v>
-      </c>
-      <c r="J7" s="2">
-        <v>103</v>
+      <c r="E7" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="11">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>10</v>
+      </c>
+      <c r="I7" s="11">
+        <v>16</v>
+      </c>
+      <c r="J7" s="11">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25">
       <c r="A8"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="E8" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5">
         <v>50</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>96</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25">
       <c r="A9"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="E9" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5">
         <v>50</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>96</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
       <c r="A10"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2">
-        <v>23</v>
-      </c>
-      <c r="H10" s="2">
-        <v>50</v>
-      </c>
-      <c r="I10" s="2">
-        <v>96</v>
-      </c>
-      <c r="J10" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="17.25">
-      <c r="C11" s="6">
+      <c r="E10" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11">
+        <v>23</v>
+      </c>
+      <c r="J10" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="17.25">
+      <c r="C11" s="7">
         <v>163406</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8">
         <v>0.12</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>12</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>20</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>45</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>87</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25">
       <c r="A12"/>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F12" s="2">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2">
-        <v>23</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="E12" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>23</v>
+      </c>
+      <c r="H12" s="5">
         <v>50</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>96</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="17.25">
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="17.25">
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>0.1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>15</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>15</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>35</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>75</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="17.25">
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="17.25">
+      <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>0.08</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>18</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>18</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>31</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>68</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F15" s="2">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="E15" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
         <v>16</v>
       </c>
-      <c r="I15" s="2">
-        <v>23</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="5">
+        <v>23</v>
+      </c>
+      <c r="J15" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="2">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="E16" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
+        <v>23</v>
+      </c>
+      <c r="H16" s="5">
         <v>50</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>96</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F17" s="2">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="E17" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="11">
+        <v>10</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>10</v>
+      </c>
+      <c r="I17" s="11">
         <v>16</v>
       </c>
-      <c r="I17" s="2">
-        <v>23</v>
-      </c>
-      <c r="J17" s="2">
-        <v>30</v>
+      <c r="J17" s="11">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F18" s="2">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="E18" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="11">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>10</v>
+      </c>
+      <c r="I18" s="11">
         <v>16</v>
       </c>
-      <c r="I18" s="2">
-        <v>23</v>
-      </c>
-      <c r="J18" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="16.5">
-      <c r="A19" s="8"/>
-      <c r="C19" s="9">
+      <c r="J18" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="16.5">
+      <c r="A19" s="3"/>
+      <c r="C19" s="12">
         <v>161725</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="11">
         <v>0.1</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="11">
         <v>15</v>
       </c>
-      <c r="G19" s="7">
-        <v>25</v>
-      </c>
-      <c r="H19" s="7">
-        <v>55</v>
-      </c>
-      <c r="I19" s="7">
-        <v>95</v>
-      </c>
-      <c r="J19" s="7">
-        <v>105</v>
+      <c r="G19" s="11">
+        <v>15</v>
+      </c>
+      <c r="H19" s="11">
+        <v>35</v>
+      </c>
+      <c r="I19" s="11">
+        <v>75</v>
+      </c>
+      <c r="J19" s="11">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F20" s="2">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2">
-        <v>10</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="E20" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="11">
+        <v>10</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>10</v>
+      </c>
+      <c r="I20" s="11">
         <v>16</v>
       </c>
-      <c r="I20" s="2">
-        <v>23</v>
-      </c>
-      <c r="J20" s="2">
-        <v>30</v>
+      <c r="J20" s="11">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="I25" s="10"/>
+      <c r="I25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E77BCE1C-C260-484F-B11E-40B5D7B5EB3B}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D29BE48A-7A4C-4075-8D47-64730E1D0AC0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="5">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5">
         <v>50</v>
@@ -896,13 +896,13 @@
         <v>10</v>
       </c>
       <c r="H10" s="11">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I10" s="11">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J10" s="11">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="17.25">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D29BE48A-7A4C-4075-8D47-64730E1D0AC0}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F49FBE-D2C0-4FF0-9866-35FFB1B699E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,14 @@
   </si>
   <si>
     <t>Four</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部利得量化成长混合A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1010,90 +1018,90 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25">
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="17.25">
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8">
+        <v>23</v>
+      </c>
+      <c r="H15" s="8">
+        <v>50</v>
+      </c>
+      <c r="I15" s="8">
+        <v>96</v>
+      </c>
+      <c r="J15" s="8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.25">
+      <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="F15" s="5">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="E16" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
         <v>16</v>
       </c>
-      <c r="I15" s="5">
-        <v>23</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="I16" s="5">
+        <v>23</v>
+      </c>
+      <c r="J16" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5">
-      <c r="C16" s="9" t="s">
+    <row r="17" spans="1:10" ht="16.5">
+      <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="5">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5">
-        <v>23</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="E17" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <v>23</v>
+      </c>
+      <c r="H17" s="5">
         <v>50</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <v>96</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5">
-      <c r="C17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="F17" s="11">
-        <v>10</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>10</v>
-      </c>
-      <c r="I17" s="11">
-        <v>16</v>
-      </c>
-      <c r="J17" s="11">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5">
       <c r="C18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="11">
         <v>0.15</v>
@@ -1114,61 +1122,87 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="16.5">
-      <c r="A19" s="3"/>
-      <c r="C19" s="12">
+    <row r="19" spans="1:10" ht="16.5">
+      <c r="C19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>10</v>
+      </c>
+      <c r="I19" s="11">
+        <v>16</v>
+      </c>
+      <c r="J19" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="16.5">
+      <c r="A20" s="3"/>
+      <c r="C20" s="12">
         <v>161725</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>0.1</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>15</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>15</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H20" s="11">
         <v>35</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I20" s="11">
         <v>75</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J20" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5">
-      <c r="C20" s="12" t="s">
+    <row r="21" spans="1:10" ht="16.5">
+      <c r="C21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="F20" s="11">
-        <v>10</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="E21" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="11">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H20" s="11">
-        <v>10</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="H21" s="11">
+        <v>10</v>
+      </c>
+      <c r="I21" s="11">
         <v>16</v>
       </c>
-      <c r="J20" s="11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="I25" s="4"/>
+      <c r="J21" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="I26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F49FBE-D2C0-4FF0-9866-35FFB1B699E6}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{70BF89CF-D63B-44F6-A549-62EBD738BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0644E8A4-2CCC-4DC7-AD33-F7AE4FDF3633}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -694,7 +694,7 @@
         <v>96</v>
       </c>
       <c r="J2" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25">
@@ -748,7 +748,7 @@
         <v>96</v>
       </c>
       <c r="J4" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25">
@@ -775,7 +775,7 @@
         <v>96</v>
       </c>
       <c r="J5" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25">
@@ -802,7 +802,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25">
@@ -856,7 +856,7 @@
         <v>96</v>
       </c>
       <c r="J8" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25">
@@ -883,7 +883,7 @@
         <v>96</v>
       </c>
       <c r="J9" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25">
@@ -963,7 +963,7 @@
         <v>96</v>
       </c>
       <c r="J12" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="17.25">
@@ -1041,7 +1041,7 @@
         <v>96</v>
       </c>
       <c r="J15" s="8">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25">
@@ -1093,7 +1093,7 @@
         <v>96</v>
       </c>
       <c r="J17" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11475"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="历史" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -156,12 +157,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,37 +171,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="唐美人 常规体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="唐美人 常规体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="唐美人 常规体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -215,6 +208,50 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,22 +266,39 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,43 +312,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,20 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -335,20 +342,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -371,31 +364,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,151 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +573,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,11 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,49 +656,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,187 +665,190 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1175,12 +1171,12 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="12" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
@@ -1195,36 +1191,36 @@
     <col min="13" max="13" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" ht="15" spans="1:10">
       <c r="A1"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:10">
       <c r="A2"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1236,49 +1232,49 @@
       <c r="F2" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="5">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4">
         <v>50</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>56</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:10">
       <c r="A3"/>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
-        <v>10</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="H3" s="6">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6">
         <v>16</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:10">
       <c r="A4"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1290,22 +1286,22 @@
       <c r="F4" s="3">
         <v>10</v>
       </c>
-      <c r="G4" s="5">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5">
-        <v>23</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4">
         <v>50</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>56</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:10">
       <c r="A5"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1317,22 +1313,22 @@
       <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4">
         <v>50</v>
       </c>
-      <c r="I5" s="3">
-        <v>96</v>
-      </c>
-      <c r="J5" s="3">
-        <v>110</v>
+      <c r="J5" s="4">
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:10">
       <c r="A6"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1344,49 +1340,49 @@
       <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4">
         <v>50</v>
       </c>
-      <c r="I6" s="3">
-        <v>96</v>
-      </c>
-      <c r="J6" s="3">
-        <v>110</v>
+      <c r="J6" s="4">
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:10">
       <c r="A7"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F7" s="7">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="E7" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="6">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6">
         <v>16</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:10">
       <c r="A8"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1398,22 +1394,22 @@
       <c r="F8" s="3">
         <v>10</v>
       </c>
-      <c r="G8" s="5">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5">
-        <v>23</v>
-      </c>
-      <c r="I8" s="5">
-        <v>50</v>
-      </c>
-      <c r="J8" s="5">
-        <v>56</v>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6">
+        <v>16</v>
+      </c>
+      <c r="J8" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:10">
       <c r="A9"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1425,75 +1421,75 @@
       <c r="F9" s="3">
         <v>10</v>
       </c>
-      <c r="G9" s="3">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="4">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4">
         <v>50</v>
       </c>
-      <c r="I9" s="3">
-        <v>96</v>
-      </c>
-      <c r="J9" s="3">
-        <v>110</v>
+      <c r="J9" s="4">
+        <v>56</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:10">
       <c r="A10"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F10" s="7">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7">
-        <v>10</v>
-      </c>
-      <c r="H10" s="7">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7">
-        <v>50</v>
-      </c>
-      <c r="J10" s="7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C11" s="8">
+      <c r="E10" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
+        <v>16</v>
+      </c>
+      <c r="J10" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="1" ht="17.25" spans="3:10">
+      <c r="C11" s="7">
         <v>163406</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>0.12</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>12</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>12</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>20</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>45</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>54</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:10">
       <c r="A12"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1505,99 +1501,99 @@
       <c r="F12" s="3">
         <v>10</v>
       </c>
-      <c r="G12" s="5">
-        <v>10</v>
-      </c>
-      <c r="H12" s="5">
-        <v>23</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4">
         <v>50</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C13" s="8" t="s">
+    <row r="13" s="11" customFormat="1" ht="17.25" spans="3:10">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>0.1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>15</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>15</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
+        <v>25</v>
+      </c>
+      <c r="I13" s="4">
         <v>35</v>
       </c>
-      <c r="I13" s="5">
-        <v>65</v>
-      </c>
-      <c r="J13" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C14" s="8" t="s">
+      <c r="J13" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="17.25" spans="3:10">
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>0.08</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>18</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>18</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>31</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
+        <v>43</v>
+      </c>
+      <c r="J14" s="4">
         <v>56</v>
       </c>
-      <c r="J14" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="15" s="11" customFormat="1" ht="17.25" spans="3:10">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="F15" s="9">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5">
-        <v>23</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="E15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4">
         <v>50</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>56</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="3:10">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1623,7 +1619,7 @@
       </c>
     </row>
     <row r="17" ht="16.5" spans="3:10">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1635,103 +1631,640 @@
       <c r="F17" s="3">
         <v>10</v>
       </c>
-      <c r="G17" s="5">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5">
-        <v>23</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <v>23</v>
+      </c>
+      <c r="I17" s="4">
         <v>50</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>56</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="3:10">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F18" s="7">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="E18" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
         <v>0</v>
       </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="H18" s="6">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6">
         <v>16</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="3:10">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F19" s="7">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="E19" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="7">
-        <v>10</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="H19" s="6">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6">
         <v>16</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="3:10">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F20" s="7">
-        <v>10</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="E20" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="H20" s="6">
+        <v>10</v>
+      </c>
+      <c r="I20" s="6">
         <v>16</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="9:9">
-      <c r="I25" s="12"/>
+      <c r="I25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3">
+        <v>96</v>
+      </c>
+      <c r="H5" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3">
+        <v>96</v>
+      </c>
+      <c r="H6" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4">
+        <v>50</v>
+      </c>
+      <c r="H8" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3">
+        <v>96</v>
+      </c>
+      <c r="H9" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="7">
+        <v>163406</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="8">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45</v>
+      </c>
+      <c r="H11" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4">
+        <v>50</v>
+      </c>
+      <c r="H12" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8">
+        <v>35</v>
+      </c>
+      <c r="G13" s="4">
+        <v>65</v>
+      </c>
+      <c r="H13" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="D14" s="8">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4">
+        <v>56</v>
+      </c>
+      <c r="H14" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D15" s="8">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:8">
+      <c r="A17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4">
+        <v>50</v>
+      </c>
+      <c r="H17" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:8">
+      <c r="A19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:8">
+      <c r="A20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -199,6 +199,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -207,7 +261,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,129 +336,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +364,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,7 +460,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,37 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,121 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,11 +581,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,7 +607,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,32 +627,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,20 +651,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,137 +694,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,6 +854,24 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1171,14 +1195,14 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.125" style="12" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="13" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="6.25" customWidth="1"/>
     <col min="6" max="6" width="5.875" customWidth="1"/>
@@ -1229,20 +1253,20 @@
       <c r="E2" s="3">
         <v>0.15</v>
       </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4">
-        <v>50</v>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14">
+        <v>23</v>
       </c>
       <c r="J2" s="4">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:10">
@@ -1263,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
         <v>16</v>
-      </c>
-      <c r="J3" s="6">
-        <v>23</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:10">
@@ -1283,20 +1307,20 @@
       <c r="E4" s="3">
         <v>0.15</v>
       </c>
-      <c r="F4" s="3">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4">
-        <v>50</v>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14">
+        <v>23</v>
       </c>
       <c r="J4" s="4">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:10">
@@ -1310,20 +1334,20 @@
       <c r="E5" s="3">
         <v>0.15</v>
       </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4">
-        <v>50</v>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>10</v>
+      </c>
+      <c r="I5" s="14">
+        <v>23</v>
       </c>
       <c r="J5" s="4">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:10">
@@ -1337,20 +1361,20 @@
       <c r="E6" s="3">
         <v>0.15</v>
       </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4">
-        <v>50</v>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>10</v>
+      </c>
+      <c r="I6" s="14">
+        <v>23</v>
       </c>
       <c r="J6" s="4">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:10">
@@ -1365,19 +1389,19 @@
         <v>0.15</v>
       </c>
       <c r="F7" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6">
         <v>16</v>
-      </c>
-      <c r="J7" s="6">
-        <v>23</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:10">
@@ -1391,20 +1415,20 @@
       <c r="E8" s="3">
         <v>0.15</v>
       </c>
-      <c r="F8" s="3">
-        <v>10</v>
+      <c r="F8" s="6">
+        <v>0</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6">
         <v>16</v>
-      </c>
-      <c r="J8" s="6">
-        <v>23</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:10">
@@ -1418,20 +1442,20 @@
       <c r="E9" s="3">
         <v>0.15</v>
       </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4">
-        <v>23</v>
-      </c>
-      <c r="I9" s="4">
-        <v>50</v>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14">
+        <v>23</v>
       </c>
       <c r="J9" s="4">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:10">
@@ -1446,7 +1470,7 @@
         <v>0.15</v>
       </c>
       <c r="F10" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -1471,20 +1495,20 @@
       <c r="E11" s="8">
         <v>0.12</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
         <v>12</v>
       </c>
-      <c r="G11" s="4">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="I11" s="14">
         <v>20</v>
       </c>
-      <c r="I11" s="4">
-        <v>45</v>
-      </c>
       <c r="J11" s="4">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:10">
@@ -1498,20 +1522,20 @@
       <c r="E12" s="3">
         <v>0.15</v>
       </c>
-      <c r="F12" s="3">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4">
-        <v>23</v>
-      </c>
-      <c r="I12" s="4">
-        <v>50</v>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>10</v>
+      </c>
+      <c r="I12" s="14">
+        <v>23</v>
       </c>
       <c r="J12" s="4">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="17.25" spans="3:10">
@@ -1524,20 +1548,20 @@
       <c r="E13" s="8">
         <v>0.1</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
         <v>15</v>
       </c>
-      <c r="G13" s="8">
-        <v>15</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="I13" s="14">
         <v>25</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>35</v>
-      </c>
-      <c r="J13" s="4">
-        <v>45</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="17.25" spans="3:10">
@@ -1550,20 +1574,20 @@
       <c r="E14" s="8">
         <v>0.08</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
         <v>18</v>
       </c>
-      <c r="G14" s="8">
-        <v>18</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="J14" s="4">
         <v>31</v>
-      </c>
-      <c r="I14" s="4">
-        <v>43</v>
-      </c>
-      <c r="J14" s="4">
-        <v>56</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" ht="17.25" spans="3:10">
@@ -1576,20 +1600,20 @@
       <c r="E15" s="8">
         <v>0.15</v>
       </c>
-      <c r="F15" s="8">
-        <v>10</v>
-      </c>
-      <c r="G15" s="4">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4">
-        <v>23</v>
-      </c>
-      <c r="I15" s="4">
-        <v>50</v>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>10</v>
+      </c>
+      <c r="I15" s="14">
+        <v>23</v>
       </c>
       <c r="J15" s="4">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="3:10">
@@ -1602,24 +1626,24 @@
       <c r="E16" s="3">
         <v>0.15</v>
       </c>
-      <c r="F16" s="3">
-        <v>10</v>
-      </c>
-      <c r="G16" s="3">
-        <v>10</v>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
       </c>
       <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
         <v>16</v>
       </c>
-      <c r="I16" s="3">
-        <v>23</v>
-      </c>
-      <c r="J16" s="3">
-        <v>30</v>
-      </c>
     </row>
     <row r="17" ht="16.5" spans="3:10">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1628,24 +1652,24 @@
       <c r="E17" s="3">
         <v>0.15</v>
       </c>
-      <c r="F17" s="3">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4">
-        <v>23</v>
-      </c>
-      <c r="I17" s="4">
-        <v>50</v>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>10</v>
+      </c>
+      <c r="I17" s="14">
+        <v>23</v>
       </c>
       <c r="J17" s="4">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="3:10">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1655,23 +1679,23 @@
         <v>0.15</v>
       </c>
       <c r="F18" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I18" s="6">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6">
         <v>16</v>
       </c>
-      <c r="J18" s="6">
-        <v>23</v>
-      </c>
     </row>
     <row r="19" ht="16.5" spans="3:10">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1681,23 +1705,23 @@
         <v>0.15</v>
       </c>
       <c r="F19" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
         <v>16</v>
       </c>
-      <c r="J19" s="6">
-        <v>23</v>
-      </c>
     </row>
     <row r="20" ht="16.5" spans="3:10">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1707,23 +1731,23 @@
         <v>0.15</v>
       </c>
       <c r="F20" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
       </c>
       <c r="H20" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I20" s="6">
+        <v>10</v>
+      </c>
+      <c r="J20" s="6">
         <v>16</v>
       </c>
-      <c r="J20" s="6">
-        <v>23</v>
-      </c>
     </row>
     <row r="25" spans="9:9">
-      <c r="I25" s="13"/>
+      <c r="I25" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1738,10 +1762,19 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:8">
       <c r="A1" s="1" t="s">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>国富大中华精选混合</t>
+  </si>
+  <si>
+    <t>014530</t>
+  </si>
+  <si>
+    <t>华夏MSCI中国A50</t>
   </si>
   <si>
     <t>002190</t>
@@ -158,8 +164,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -194,6 +200,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -208,18 +265,47 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,20 +318,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -253,47 +325,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,46 +348,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,193 +370,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,32 +582,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,23 +606,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,16 +646,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,137 +694,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,15 +856,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1192,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1259,10 +1250,10 @@
       <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
-        <v>10</v>
-      </c>
-      <c r="I2" s="14">
+      <c r="H2" s="8">
+        <v>10</v>
+      </c>
+      <c r="I2" s="8">
         <v>23</v>
       </c>
       <c r="J2" s="4">
@@ -1287,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="6">
         <v>10</v>
@@ -1313,10 +1304,10 @@
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="14">
-        <v>10</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="H4" s="8">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8">
         <v>23</v>
       </c>
       <c r="J4" s="4">
@@ -1340,10 +1331,10 @@
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
-        <v>10</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="H5" s="8">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8">
         <v>23</v>
       </c>
       <c r="J5" s="4">
@@ -1367,10 +1358,10 @@
       <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="14">
-        <v>10</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="H6" s="8">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8">
         <v>23</v>
       </c>
       <c r="J6" s="4">
@@ -1395,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="6">
         <v>10</v>
@@ -1421,14 +1412,14 @@
       <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="H8" s="8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="8">
         <v>16</v>
+      </c>
+      <c r="J8" s="4">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:10">
@@ -1448,25 +1439,25 @@
       <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H9" s="14">
-        <v>10</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="H9" s="8">
+        <v>10</v>
+      </c>
+      <c r="I9" s="8">
         <v>23</v>
       </c>
       <c r="J9" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:10">
+    <row r="10" ht="16.5" spans="1:10">
       <c r="A10"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>0.15</v>
       </c>
       <c r="F10" s="6">
@@ -1475,13 +1466,13 @@
       <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="H10" s="6">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="H10" s="8">
+        <v>10</v>
+      </c>
+      <c r="I10" s="8">
         <v>16</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>23</v>
       </c>
     </row>
@@ -1501,17 +1492,17 @@
       <c r="G11" s="6">
         <v>0</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="8">
         <v>12</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="8">
         <v>20</v>
       </c>
       <c r="J11" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:10">
+    <row r="12" ht="17.25" spans="1:12">
       <c r="A12"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -1528,15 +1519,16 @@
       <c r="G12" s="6">
         <v>0</v>
       </c>
-      <c r="H12" s="14">
-        <v>10</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+      <c r="I12" s="8">
         <v>23</v>
       </c>
       <c r="J12" s="4">
         <v>30</v>
       </c>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" s="11" customFormat="1" ht="17.25" spans="3:10">
       <c r="C13" s="7" t="s">
@@ -1554,10 +1546,10 @@
       <c r="G13" s="6">
         <v>0</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="8">
         <v>15</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="8">
         <v>25</v>
       </c>
       <c r="J13" s="4">
@@ -1580,10 +1572,10 @@
       <c r="G14" s="6">
         <v>0</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="H14" s="8">
+        <v>18</v>
+      </c>
+      <c r="I14" s="8">
         <v>18</v>
       </c>
       <c r="J14" s="4">
@@ -1606,10 +1598,10 @@
       <c r="G15" s="6">
         <v>0</v>
       </c>
-      <c r="H15" s="14">
-        <v>10</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="H15" s="8">
+        <v>10</v>
+      </c>
+      <c r="I15" s="8">
         <v>23</v>
       </c>
       <c r="J15" s="4">
@@ -1629,11 +1621,11 @@
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="3">
         <v>10</v>
@@ -1642,15 +1634,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="3:10">
-      <c r="C17" s="17" t="s">
+    <row r="17" ht="17.25" spans="3:10">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="3">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -1658,44 +1650,44 @@
       <c r="G17" s="6">
         <v>0</v>
       </c>
-      <c r="H17" s="14">
-        <v>10</v>
-      </c>
-      <c r="I17" s="14">
-        <v>23</v>
+      <c r="H17" s="8">
+        <v>12</v>
+      </c>
+      <c r="I17" s="8">
+        <v>20</v>
       </c>
       <c r="J17" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="3:10">
+      <c r="C18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>10</v>
+      </c>
+      <c r="I18" s="8">
+        <v>23</v>
+      </c>
+      <c r="J18" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="3:10">
-      <c r="C18" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>10</v>
-      </c>
-      <c r="J18" s="6">
-        <v>16</v>
-      </c>
-    </row>
     <row r="19" ht="16.5" spans="3:10">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1711,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19" s="6">
         <v>10</v>
@@ -1721,7 +1713,7 @@
       </c>
     </row>
     <row r="20" ht="16.5" spans="3:10">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1737,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="6">
         <v>10</v>
@@ -1746,8 +1738,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
-      <c r="I25" s="19"/>
+    <row r="21" ht="16.5" spans="3:10">
+      <c r="C21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
+        <v>10</v>
+      </c>
+      <c r="J21" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2194,10 +2212,10 @@
     </row>
     <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3">
         <v>0.15</v>
@@ -2220,10 +2238,10 @@
     </row>
     <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6">
         <v>0.15</v>
@@ -2246,10 +2264,10 @@
     </row>
     <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6">
         <v>0.15</v>
@@ -2272,10 +2290,10 @@
     </row>
     <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="6">
         <v>0.15</v>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12435"/>
+    <workbookView windowWidth="27045" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -212,6 +212,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -219,8 +286,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,121 +348,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -376,49 +376,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,127 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,15 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -599,24 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,11 +611,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,17 +666,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,130 +694,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2" s="8">
         <v>10</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="4" ht="17.25" spans="1:10">
       <c r="A4"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>0.15</v>
       </c>
       <c r="F4" s="6">
@@ -1304,14 +1304,14 @@
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4">
-        <v>30</v>
+      <c r="H4" s="6">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:10">
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8">
         <v>10</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H6" s="8">
         <v>10</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="8">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="8">
         <v>10</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="8">
         <v>10</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8">
         <v>12</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="8">
         <v>10</v>
@@ -1531,28 +1531,28 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>0.1</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
         <v>15</v>
       </c>
-      <c r="I13" s="8">
+      <c r="H13" s="6">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6">
         <v>25</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <v>35</v>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H14" s="8">
         <v>18</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15" s="8">
         <v>10</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
         <v>10</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H17" s="8">
         <v>12</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H18" s="8">
         <v>10</v>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -164,9 +164,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -207,6 +207,73 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,18 +287,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,7 +327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,95 +343,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -370,61 +370,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,121 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,6 +579,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -590,39 +599,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,6 +627,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -665,27 +676,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,19 +694,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,116 +715,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,6 +856,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1186,7 +1192,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1289,29 +1295,29 @@
     </row>
     <row r="4" ht="17.25" spans="1:10">
       <c r="A4"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="15">
         <v>0.15</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6">
-        <v>16</v>
-      </c>
-      <c r="J4" s="6">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:10">
@@ -1451,29 +1457,29 @@
     </row>
     <row r="10" ht="16.5" spans="1:10">
       <c r="A10"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>0.15</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
       <c r="G10" s="6">
-        <v>10</v>
-      </c>
-      <c r="H10" s="8">
-        <v>10</v>
-      </c>
-      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
         <v>16</v>
-      </c>
-      <c r="J10" s="4">
-        <v>23</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" ht="17.25" spans="3:10">
@@ -1661,7 +1667,7 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="3:10">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1687,7 +1693,7 @@
       </c>
     </row>
     <row r="19" ht="16.5" spans="3:10">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1713,7 +1719,7 @@
       </c>
     </row>
     <row r="20" ht="16.5" spans="3:10">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1739,7 +1745,7 @@
       </c>
     </row>
     <row r="21" ht="16.5" spans="3:10">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1765,7 +1771,7 @@
       </c>
     </row>
     <row r="26" spans="9:9">
-      <c r="I26" s="16"/>
+      <c r="I26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27045" windowHeight="10905"/>
+    <workbookView windowWidth="23430" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,27 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -241,6 +220,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -250,14 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,46 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -319,28 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -370,19 +370,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,49 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,109 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,21 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -638,15 +623,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -658,6 +634,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,19 +694,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,116 +715,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,12 +856,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1192,7 +1186,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1295,13 +1289,13 @@
     </row>
     <row r="4" ht="17.25" spans="1:10">
       <c r="A4"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="8">
         <v>0.15</v>
       </c>
       <c r="F4" s="6">
@@ -1416,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <v>10</v>
       </c>
       <c r="I8" s="8">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
         <v>16</v>
-      </c>
-      <c r="J8" s="4">
-        <v>23</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:10">
@@ -1550,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>15</v>
       </c>
       <c r="I13" s="6">
+        <v>15</v>
+      </c>
+      <c r="J13" s="6">
         <v>25</v>
-      </c>
-      <c r="J13" s="6">
-        <v>35</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="17.25" spans="3:10">
@@ -1667,7 +1661,7 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="3:10">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1693,7 +1687,7 @@
       </c>
     </row>
     <row r="19" ht="16.5" spans="3:10">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1719,7 +1713,7 @@
       </c>
     </row>
     <row r="20" ht="16.5" spans="3:10">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1745,7 +1739,7 @@
       </c>
     </row>
     <row r="21" ht="16.5" spans="3:10">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1771,7 +1765,7 @@
       </c>
     </row>
     <row r="26" spans="9:9">
-      <c r="I26" s="18"/>
+      <c r="I26" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -163,9 +163,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -202,6 +202,104 @@
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,20 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -235,53 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,54 +336,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,49 +370,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,133 +520,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,15 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -599,56 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,16 +617,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1284,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:10">
@@ -1473,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" ht="17.25" spans="3:10">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>10</v>
@@ -1630,8 +1630,8 @@
       <c r="I16" s="3">
         <v>10</v>
       </c>
-      <c r="J16" s="4">
-        <v>16</v>
+      <c r="J16" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:10">
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="3:10">
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="3:10">
@@ -1761,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="9:9">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -47,97 +47,97 @@
     <t>汇丰晋信智造先锋股票A</t>
   </si>
   <si>
+    <t>002190</t>
+  </si>
+  <si>
+    <t>农银新能源</t>
+  </si>
+  <si>
+    <t>001054</t>
+  </si>
+  <si>
+    <t>工银瑞信新金融股票</t>
+  </si>
+  <si>
+    <t>001718</t>
+  </si>
+  <si>
+    <t>工银瑞信物流产业股票</t>
+  </si>
+  <si>
+    <t>166019</t>
+  </si>
+  <si>
+    <t>中欧价值智选回报A</t>
+  </si>
+  <si>
+    <t>004997</t>
+  </si>
+  <si>
+    <t>广发高端制造股票A</t>
+  </si>
+  <si>
+    <t>001717</t>
+  </si>
+  <si>
+    <t>工银瑞信前沿医疗股票A</t>
+  </si>
+  <si>
+    <t>000991</t>
+  </si>
+  <si>
+    <t>工银瑞信战略转型主题股票A</t>
+  </si>
+  <si>
+    <t>519714</t>
+  </si>
+  <si>
+    <t>交银施罗德消费新驱动股票</t>
+  </si>
+  <si>
+    <t>兴全合润混合LOF</t>
+  </si>
+  <si>
+    <t>001070</t>
+  </si>
+  <si>
+    <t>建信信息产业股票</t>
+  </si>
+  <si>
+    <t>502000</t>
+  </si>
+  <si>
+    <t>西部利得中证500指数增强A</t>
+  </si>
+  <si>
+    <t>673100</t>
+  </si>
+  <si>
+    <t>西部利得沪深300指数增强A</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>西部利得量化成长混合A</t>
+  </si>
+  <si>
+    <t>000934</t>
+  </si>
+  <si>
+    <t>国富大中华精选混合</t>
+  </si>
+  <si>
+    <t>014530</t>
+  </si>
+  <si>
+    <t>华夏MSCI中国A50</t>
+  </si>
+  <si>
     <t>000594</t>
   </si>
   <si>
     <t>大摩进取优选股票</t>
-  </si>
-  <si>
-    <t>001054</t>
-  </si>
-  <si>
-    <t>工银瑞信新金融股票</t>
-  </si>
-  <si>
-    <t>001718</t>
-  </si>
-  <si>
-    <t>工银瑞信物流产业股票</t>
-  </si>
-  <si>
-    <t>166019</t>
-  </si>
-  <si>
-    <t>中欧价值智选回报A</t>
-  </si>
-  <si>
-    <t>004997</t>
-  </si>
-  <si>
-    <t>广发高端制造股票A</t>
-  </si>
-  <si>
-    <t>001717</t>
-  </si>
-  <si>
-    <t>工银瑞信前沿医疗股票A</t>
-  </si>
-  <si>
-    <t>000991</t>
-  </si>
-  <si>
-    <t>工银瑞信战略转型主题股票A</t>
-  </si>
-  <si>
-    <t>519714</t>
-  </si>
-  <si>
-    <t>交银施罗德消费新驱动股票</t>
-  </si>
-  <si>
-    <t>兴全合润混合LOF</t>
-  </si>
-  <si>
-    <t>001070</t>
-  </si>
-  <si>
-    <t>建信信息产业股票</t>
-  </si>
-  <si>
-    <t>502000</t>
-  </si>
-  <si>
-    <t>西部利得中证500指数增强A</t>
-  </si>
-  <si>
-    <t>673100</t>
-  </si>
-  <si>
-    <t>西部利得沪深300指数增强A</t>
-  </si>
-  <si>
-    <t>000006</t>
-  </si>
-  <si>
-    <t>西部利得量化成长混合A</t>
-  </si>
-  <si>
-    <t>000934</t>
-  </si>
-  <si>
-    <t>国富大中华精选混合</t>
-  </si>
-  <si>
-    <t>014530</t>
-  </si>
-  <si>
-    <t>华夏MSCI中国A50</t>
-  </si>
-  <si>
-    <t>002190</t>
-  </si>
-  <si>
-    <t>农银新能源</t>
   </si>
   <si>
     <t>005827</t>
@@ -163,8 +163,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -206,6 +206,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -213,7 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +235,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,19 +286,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,23 +318,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,62 +348,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,187 +370,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +600,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -614,41 +644,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,16 +671,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,100 +700,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,35 +817,20 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,6 +865,15 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1183,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1202,8 +1217,7 @@
     <col min="9" max="9" width="6.875" customWidth="1"/>
     <col min="10" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="4.875" customWidth="1"/>
+    <col min="12" max="12" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:10">
@@ -1248,43 +1262,43 @@
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2" s="8">
         <v>10</v>
       </c>
       <c r="I2" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:10">
+      <c r="A3"/>
+      <c r="C3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4">
         <v>30</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" spans="1:10">
-      <c r="A3"/>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6">
-        <v>10</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:10">
@@ -1302,16 +1316,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H4" s="8">
         <v>10</v>
       </c>
       <c r="I4" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J4" s="4">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:10">
@@ -1329,16 +1343,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
         <v>10</v>
       </c>
       <c r="I5" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J5" s="4">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:10">
@@ -1356,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
         <v>10</v>
       </c>
       <c r="I6" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J6" s="4">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:10">
@@ -1376,7 +1390,7 @@
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="15">
         <v>0.15</v>
       </c>
       <c r="F7" s="6">
@@ -1385,11 +1399,11 @@
       <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6">
-        <v>10</v>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="8">
+        <v>16</v>
       </c>
       <c r="J7" s="6">
         <v>16</v>
@@ -1418,16 +1432,16 @@
       <c r="I8" s="8">
         <v>10</v>
       </c>
-      <c r="J8" s="4">
-        <v>16</v>
+      <c r="J8" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:10">
       <c r="A9"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3">
@@ -1436,7 +1450,7 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <v>10</v>
       </c>
       <c r="H9" s="8">
@@ -1457,7 +1471,7 @@
       <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="15">
         <v>0.15</v>
       </c>
       <c r="F10" s="6">
@@ -1466,10 +1480,10 @@
       <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="H10" s="6">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="H10" s="15">
+        <v>10</v>
+      </c>
+      <c r="I10" s="15">
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -1477,10 +1491,10 @@
       </c>
     </row>
     <row r="11" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C11" s="7">
+      <c r="C11" s="16">
         <v>163406</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="8">
@@ -1489,7 +1503,7 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <v>12</v>
       </c>
       <c r="H11" s="8">
@@ -1502,7 +1516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:12">
+    <row r="12" ht="17.25" spans="1:10">
       <c r="A12"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
@@ -1517,18 +1531,17 @@
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
         <v>10</v>
       </c>
       <c r="I12" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J12" s="4">
-        <v>30</v>
-      </c>
-      <c r="L12" s="8"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="17.25" spans="3:10">
       <c r="C13" s="5" t="s">
@@ -1537,7 +1550,7 @@
       <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="15">
         <v>0.1</v>
       </c>
       <c r="F13" s="6">
@@ -1546,10 +1559,10 @@
       <c r="G13" s="6">
         <v>0</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="15">
         <v>15</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="15">
         <v>15</v>
       </c>
       <c r="J13" s="6">
@@ -1557,10 +1570,10 @@
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="8">
@@ -1569,7 +1582,7 @@
       <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>18</v>
       </c>
       <c r="H14" s="8">
@@ -1596,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H15" s="8">
         <v>10</v>
       </c>
       <c r="I15" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J15" s="4">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="3:10">
@@ -1635,10 +1648,10 @@
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:10">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="3">
@@ -1647,7 +1660,7 @@
       <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="8">
         <v>12</v>
       </c>
       <c r="H17" s="8">
@@ -1660,40 +1673,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="3:10">
-      <c r="C18" s="14" t="s">
+    <row r="18" ht="17.25" spans="3:10">
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="15">
         <v>0.15</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <v>10</v>
-      </c>
-      <c r="H18" s="8">
-        <v>10</v>
-      </c>
-      <c r="I18" s="8">
-        <v>23</v>
-      </c>
-      <c r="J18" s="4">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>10</v>
+      </c>
+      <c r="I18" s="15">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="3:10">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="15">
         <v>0.15</v>
       </c>
       <c r="F19" s="6">
@@ -1702,10 +1715,10 @@
       <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="6">
-        <v>10</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="H19" s="15">
+        <v>10</v>
+      </c>
+      <c r="I19" s="15">
         <v>10</v>
       </c>
       <c r="J19" s="6">
@@ -1713,13 +1726,13 @@
       </c>
     </row>
     <row r="20" ht="16.5" spans="3:10">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="15">
         <v>0.15</v>
       </c>
       <c r="F20" s="6">
@@ -1728,10 +1741,10 @@
       <c r="G20" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="6">
-        <v>10</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="H20" s="15">
+        <v>10</v>
+      </c>
+      <c r="I20" s="15">
         <v>10</v>
       </c>
       <c r="J20" s="6">
@@ -1739,13 +1752,13 @@
       </c>
     </row>
     <row r="21" ht="16.5" spans="3:10">
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="15">
         <v>0.15</v>
       </c>
       <c r="F21" s="6">
@@ -1754,10 +1767,10 @@
       <c r="G21" s="6">
         <v>0</v>
       </c>
-      <c r="H21" s="6">
-        <v>10</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="H21" s="15">
+        <v>10</v>
+      </c>
+      <c r="I21" s="15">
         <v>10</v>
       </c>
       <c r="J21" s="6">
@@ -1765,7 +1778,7 @@
       </c>
     </row>
     <row r="26" spans="9:9">
-      <c r="I26" s="16"/>
+      <c r="I26" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1848,10 +1861,10 @@
     </row>
     <row r="3" ht="17.25" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6">
         <v>0.15</v>
@@ -2212,10 +2225,10 @@
     </row>
     <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3">
         <v>0.15</v>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -212,6 +212,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -219,10 +243,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,14 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,9 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,16 +312,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,41 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,21 +348,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -376,13 +376,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,49 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,19 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,19 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,67 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +600,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -618,17 +647,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,36 +682,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,137 +700,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,9 +865,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1390,7 +1387,7 @@
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="8">
         <v>0.15</v>
       </c>
       <c r="F7" s="6">
@@ -1399,7 +1396,7 @@
       <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="8">
         <v>10</v>
       </c>
       <c r="I7" s="8">
@@ -1438,10 +1435,10 @@
     </row>
     <row r="9" ht="17.25" spans="1:10">
       <c r="A9"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3">
@@ -1471,7 +1468,7 @@
       <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="8">
         <v>0.15</v>
       </c>
       <c r="F10" s="6">
@@ -1480,10 +1477,10 @@
       <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="H10" s="15">
-        <v>10</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="H10" s="8">
+        <v>10</v>
+      </c>
+      <c r="I10" s="8">
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -1491,10 +1488,10 @@
       </c>
     </row>
     <row r="11" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>163406</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="8">
@@ -1550,7 +1547,7 @@
       <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="8">
         <v>0.1</v>
       </c>
       <c r="F13" s="6">
@@ -1559,10 +1556,10 @@
       <c r="G13" s="6">
         <v>0</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="8">
         <v>15</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="8">
         <v>15</v>
       </c>
       <c r="J13" s="6">
@@ -1570,10 +1567,10 @@
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="8">
@@ -1648,10 +1645,10 @@
       </c>
     </row>
     <row r="17" ht="17.25" spans="3:10">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="3">
@@ -1680,7 +1677,7 @@
       <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="8">
         <v>0.15</v>
       </c>
       <c r="F18" s="6">
@@ -1689,10 +1686,10 @@
       <c r="G18" s="6">
         <v>0</v>
       </c>
-      <c r="H18" s="15">
-        <v>10</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="H18" s="8">
+        <v>10</v>
+      </c>
+      <c r="I18" s="8">
         <v>10</v>
       </c>
       <c r="J18" s="6">
@@ -1700,13 +1697,13 @@
       </c>
     </row>
     <row r="19" ht="16.5" spans="3:10">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="8">
         <v>0.15</v>
       </c>
       <c r="F19" s="6">
@@ -1715,10 +1712,10 @@
       <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="15">
-        <v>10</v>
-      </c>
-      <c r="I19" s="15">
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8">
         <v>10</v>
       </c>
       <c r="J19" s="6">
@@ -1726,13 +1723,13 @@
       </c>
     </row>
     <row r="20" ht="16.5" spans="3:10">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="8">
         <v>0.15</v>
       </c>
       <c r="F20" s="6">
@@ -1741,44 +1738,18 @@
       <c r="G20" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="15">
-        <v>10</v>
-      </c>
-      <c r="I20" s="15">
+      <c r="H20" s="8">
+        <v>10</v>
+      </c>
+      <c r="I20" s="8">
         <v>10</v>
       </c>
       <c r="J20" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="3:10">
-      <c r="C21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>10</v>
-      </c>
-      <c r="I21" s="15">
-        <v>10</v>
-      </c>
-      <c r="J21" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9">
-      <c r="I26" s="19"/>
+    <row r="25" spans="9:9">
+      <c r="I25" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23430" windowHeight="10905"/>
+    <workbookView windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>建信信息产业股票</t>
+  </si>
+  <si>
+    <t>013310</t>
+  </si>
+  <si>
+    <t>华夏中证双创50</t>
   </si>
   <si>
     <t>502000</t>
@@ -163,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -209,6 +215,90 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +311,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -229,7 +327,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,111 +348,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -376,187 +382,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,59 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,16 +635,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="I12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1267,8 +1273,8 @@
       <c r="I2" s="8">
         <v>16</v>
       </c>
-      <c r="J2" s="4">
-        <v>23</v>
+      <c r="J2" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:10">
@@ -1321,8 +1327,8 @@
       <c r="I4" s="8">
         <v>16</v>
       </c>
-      <c r="J4" s="4">
-        <v>23</v>
+      <c r="J4" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:10">
@@ -1348,8 +1354,8 @@
       <c r="I5" s="8">
         <v>16</v>
       </c>
-      <c r="J5" s="4">
-        <v>23</v>
+      <c r="J5" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:10">
@@ -1375,8 +1381,8 @@
       <c r="I6" s="8">
         <v>16</v>
       </c>
-      <c r="J6" s="4">
-        <v>23</v>
+      <c r="J6" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:10">
@@ -1500,8 +1506,8 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
-        <v>12</v>
+      <c r="G11" s="6">
+        <v>0</v>
       </c>
       <c r="H11" s="8">
         <v>12</v>
@@ -1536,168 +1542,168 @@
       <c r="I12" s="8">
         <v>16</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="17.25" spans="3:10">
+      <c r="C13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>12</v>
+      </c>
+      <c r="I13" s="8">
+        <v>20</v>
+      </c>
+      <c r="J13" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="17.25" spans="3:10">
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>15</v>
+      </c>
+      <c r="I14" s="8">
+        <v>15</v>
+      </c>
+      <c r="J14" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" ht="17.25" spans="3:10">
+      <c r="C15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8">
+        <v>18</v>
+      </c>
+      <c r="I15" s="8">
+        <v>18</v>
+      </c>
+      <c r="J15" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" s="11" customFormat="1" ht="17.25" spans="3:10">
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>10</v>
+      </c>
+      <c r="I16" s="8">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>15</v>
-      </c>
-      <c r="I13" s="8">
-        <v>15</v>
-      </c>
-      <c r="J13" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>18</v>
-      </c>
-      <c r="H14" s="8">
-        <v>18</v>
-      </c>
-      <c r="I14" s="8">
-        <v>18</v>
-      </c>
-      <c r="J14" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>10</v>
-      </c>
-      <c r="I15" s="8">
-        <v>16</v>
-      </c>
-      <c r="J15" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" ht="17.25" spans="3:10">
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>10</v>
-      </c>
-      <c r="I16" s="3">
-        <v>10</v>
-      </c>
-      <c r="J16" s="6">
-        <v>10</v>
-      </c>
-    </row>
     <row r="17" ht="17.25" spans="3:10">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+      <c r="J17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="3:10">
+      <c r="C18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
         <v>0.12</v>
       </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
         <v>12</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>12</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>20</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="3:10">
-      <c r="C18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>10</v>
-      </c>
-      <c r="I18" s="8">
-        <v>10</v>
-      </c>
-      <c r="J18" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="3:10">
-      <c r="C19" s="17" t="s">
+    <row r="19" ht="17.25" spans="3:10">
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1748,8 +1754,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
-      <c r="I25" s="18"/>
+    <row r="21" ht="16.5" spans="3:10">
+      <c r="C21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>10</v>
+      </c>
+      <c r="I21" s="8">
+        <v>10</v>
+      </c>
+      <c r="J21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,10 +1864,10 @@
     </row>
     <row r="3" ht="17.25" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6">
         <v>0.15</v>
@@ -2092,10 +2124,10 @@
     </row>
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8">
         <v>0.1</v>
@@ -2118,10 +2150,10 @@
     </row>
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8">
         <v>0.08</v>
@@ -2144,10 +2176,10 @@
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8">
         <v>0.15</v>
@@ -2170,10 +2202,10 @@
     </row>
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
@@ -2222,10 +2254,10 @@
     </row>
     <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="6">
         <v>0.15</v>
@@ -2248,10 +2280,10 @@
     </row>
     <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6">
         <v>0.15</v>
@@ -2274,10 +2306,10 @@
     </row>
     <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="6">
         <v>0.15</v>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12510"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,8 +169,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -212,7 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +226,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +293,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -249,111 +349,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -382,19 +382,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,19 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,139 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +591,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -606,6 +615,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,21 +645,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -655,36 +669,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J12"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1291,8 +1291,8 @@
       <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
-        <v>10</v>
+      <c r="G3" s="6">
+        <v>0</v>
       </c>
       <c r="H3" s="8">
         <v>10</v>
@@ -1673,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:10">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView windowWidth="22320" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -212,21 +212,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,10 +271,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,30 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +302,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -310,21 +333,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -340,20 +348,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -388,25 +388,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,37 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,109 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,15 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -611,6 +602,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,21 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -673,31 +688,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I3" s="8">
         <v>23</v>
@@ -1453,11 +1453,11 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <v>10</v>
+      <c r="G9" s="6">
+        <v>0</v>
       </c>
       <c r="H9" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>23</v>
@@ -1611,8 +1611,8 @@
       <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="8">
-        <v>18</v>
+      <c r="G15" s="6">
+        <v>0</v>
       </c>
       <c r="H15" s="8">
         <v>18</v>
@@ -1689,8 +1689,8 @@
       <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="8">
-        <v>12</v>
+      <c r="G18" s="6">
+        <v>0</v>
       </c>
       <c r="H18" s="8">
         <v>12</v>
@@ -1699,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="3:10">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22320" windowHeight="11790"/>
+    <workbookView windowWidth="24300" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,9 +206,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="青禾"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="青禾"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="青禾"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="青禾"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -218,8 +234,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +272,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -241,8 +287,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,8 +327,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,22 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -294,60 +364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -388,13 +404,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,49 +530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,49 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,43 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,11 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +648,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +687,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -655,49 +704,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,137 +722,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,24 +880,49 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1204,584 +1245,585 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="6.25" customWidth="1"/>
-    <col min="6" max="6" width="5.875" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="5.25" customWidth="1"/>
-    <col min="9" max="9" width="6.875" customWidth="1"/>
-    <col min="10" max="10" width="5.875" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="12" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8" style="12" customWidth="1"/>
+    <col min="12" max="12" width="4.875" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:10">
-      <c r="A1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="12"/>
+      <c r="C1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:10">
-      <c r="A2"/>
-      <c r="C2" s="2" t="s">
+    <row r="2" ht="15" spans="1:10">
+      <c r="A2" s="12"/>
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="E2" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19">
+        <v>10</v>
+      </c>
+      <c r="I2" s="19">
         <v>16</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:10">
-      <c r="A3"/>
-      <c r="C3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="12"/>
+      <c r="C3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="E3" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
         <v>16</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="19">
         <v>23</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:10">
-      <c r="A4"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" ht="15" spans="1:10">
+      <c r="A4" s="12"/>
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="E4" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>10</v>
+      </c>
+      <c r="I4" s="19">
         <v>16</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:10">
-      <c r="A5"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" ht="15" spans="1:10">
+      <c r="A5" s="12"/>
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="E5" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>10</v>
+      </c>
+      <c r="I5" s="19">
         <v>16</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:10">
-      <c r="A6"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" ht="15" spans="1:10">
+      <c r="A6" s="12"/>
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>10</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="E6" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>10</v>
+      </c>
+      <c r="I6" s="19">
         <v>16</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:10">
-      <c r="A7"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" ht="15" spans="1:10">
+      <c r="A7" s="12"/>
+      <c r="C7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>10</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="E7" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>10</v>
+      </c>
+      <c r="I7" s="19">
         <v>16</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:10">
-      <c r="A8"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" ht="15" spans="1:10">
+      <c r="A8" s="12"/>
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>10</v>
-      </c>
-      <c r="I8" s="8">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" spans="1:10">
-      <c r="A9"/>
-      <c r="C9" s="15" t="s">
+      <c r="E8" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>10</v>
+      </c>
+      <c r="I8" s="19">
+        <v>10</v>
+      </c>
+      <c r="J8" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:10">
+      <c r="A9" s="12"/>
+      <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="E9" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
         <v>16</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="19">
         <v>23</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="26">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:10">
-      <c r="A10"/>
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="12"/>
+      <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>10</v>
-      </c>
-      <c r="I10" s="8">
-        <v>10</v>
-      </c>
-      <c r="J10" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C11" s="15">
+      <c r="E10" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19">
+        <v>10</v>
+      </c>
+      <c r="J10" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="1" ht="15" spans="3:10">
+      <c r="C11" s="23">
         <v>163406</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="19">
         <v>0.12</v>
       </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
         <v>12</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="19">
         <v>20</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="26">
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:10">
-      <c r="A12"/>
-      <c r="C12" s="2" t="s">
+    <row r="12" ht="15" spans="1:10">
+      <c r="A12" s="12"/>
+      <c r="C12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>10</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="E12" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>10</v>
+      </c>
+      <c r="I12" s="19">
         <v>16</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C13" s="15" t="s">
+    <row r="13" s="12" customFormat="1" ht="15" spans="3:10">
+      <c r="C13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="17">
         <v>0.12</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
         <v>12</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="19">
         <v>20</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="26">
         <v>29</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C14" s="5" t="s">
+    <row r="14" s="11" customFormat="1" ht="15" spans="3:10">
+      <c r="C14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="19">
         <v>0.1</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
         <v>15</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="19">
         <v>15</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="15" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C15" s="15" t="s">
+    <row r="15" s="11" customFormat="1" ht="15" spans="3:10">
+      <c r="C15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="19">
         <v>0.08</v>
       </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
         <v>18</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="19">
         <v>18</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="26">
         <v>31</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="1" ht="17.25" spans="3:10">
-      <c r="C16" s="7" t="s">
+    <row r="16" s="11" customFormat="1" ht="15" spans="3:10">
+      <c r="C16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>10</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="E16" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>10</v>
+      </c>
+      <c r="I16" s="19">
         <v>16</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="26">
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="3:10">
-      <c r="C17" s="2" t="s">
+    <row r="17" ht="15" spans="3:10">
+      <c r="C17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="E17" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="17">
+        <v>10</v>
+      </c>
+      <c r="J17" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="3:10">
-      <c r="C18" s="15" t="s">
+    <row r="18" ht="15" spans="3:10">
+      <c r="C18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="17">
         <v>0.12</v>
       </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
         <v>12</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="19">
         <v>20</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="26">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="3:10">
-      <c r="C19" s="5" t="s">
+    <row r="19" ht="15" spans="3:10">
+      <c r="C19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>10</v>
-      </c>
-      <c r="I19" s="8">
-        <v>10</v>
-      </c>
-      <c r="J19" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="3:10">
-      <c r="C20" s="17" t="s">
+      <c r="E19" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>10</v>
+      </c>
+      <c r="I19" s="19">
+        <v>10</v>
+      </c>
+      <c r="J19" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>10</v>
-      </c>
-      <c r="I20" s="8">
-        <v>10</v>
-      </c>
-      <c r="J20" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="3:10">
-      <c r="C21" s="17" t="s">
+      <c r="E20" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>10</v>
+      </c>
+      <c r="I20" s="19">
+        <v>10</v>
+      </c>
+      <c r="J20" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>10</v>
-      </c>
-      <c r="I21" s="8">
-        <v>10</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="E21" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>10</v>
+      </c>
+      <c r="I21" s="19">
+        <v>10</v>
+      </c>
+      <c r="J21" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="9:9">
-      <c r="I26" s="18"/>
+      <c r="I26" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="12315"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -128,34 +128,34 @@
     <t>西部利得量化成长混合A</t>
   </si>
   <si>
+    <t>014530</t>
+  </si>
+  <si>
+    <t>华夏MSCI中国A50</t>
+  </si>
+  <si>
+    <t>000594</t>
+  </si>
+  <si>
+    <t>大摩进取优选股票</t>
+  </si>
+  <si>
+    <t>005827</t>
+  </si>
+  <si>
+    <t>易方达蓝筹</t>
+  </si>
+  <si>
+    <t>260108</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
     <t>000934</t>
   </si>
   <si>
     <t>国富大中华精选混合</t>
-  </si>
-  <si>
-    <t>014530</t>
-  </si>
-  <si>
-    <t>华夏MSCI中国A50</t>
-  </si>
-  <si>
-    <t>000594</t>
-  </si>
-  <si>
-    <t>大摩进取优选股票</t>
-  </si>
-  <si>
-    <t>005827</t>
-  </si>
-  <si>
-    <t>易方达蓝筹</t>
-  </si>
-  <si>
-    <t>260108</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
   </si>
   <si>
     <t>002001</t>
@@ -169,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -228,7 +228,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,121 +358,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -398,67 +398,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,115 +566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +607,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -622,32 +637,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,15 +651,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,8 +673,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,16 +689,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,137 +722,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,7 +922,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1242,10 +1241,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1693,14 +1692,14 @@
       </c>
     </row>
     <row r="17" ht="15" spans="3:10">
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="17">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F17" s="18">
         <v>0</v>
@@ -1708,25 +1707,25 @@
       <c r="G17" s="18">
         <v>0</v>
       </c>
-      <c r="H17" s="17">
-        <v>10</v>
-      </c>
-      <c r="I17" s="17">
-        <v>10</v>
-      </c>
-      <c r="J17" s="18">
-        <v>16</v>
+      <c r="H17" s="19">
+        <v>12</v>
+      </c>
+      <c r="I17" s="19">
+        <v>20</v>
+      </c>
+      <c r="J17" s="26">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="15" spans="3:10">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="17">
-        <v>0.12</v>
+      <c r="E18" s="19">
+        <v>0.15</v>
       </c>
       <c r="F18" s="18">
         <v>0</v>
@@ -1735,17 +1734,17 @@
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I18" s="19">
-        <v>20</v>
-      </c>
-      <c r="J18" s="26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="3:10">
-      <c r="C19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -1795,35 +1794,6 @@
       <c r="J20" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
-      <c r="H21" s="19">
-        <v>10</v>
-      </c>
-      <c r="I21" s="19">
-        <v>10</v>
-      </c>
-      <c r="J21" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9">
-      <c r="I26" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1906,10 +1876,10 @@
     </row>
     <row r="3" ht="17.25" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6">
         <v>0.15</v>
@@ -2244,10 +2214,10 @@
     </row>
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
@@ -2296,10 +2266,10 @@
     </row>
     <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6">
         <v>0.15</v>
@@ -2322,10 +2292,10 @@
     </row>
     <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6">
         <v>0.15</v>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -169,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -227,10 +227,86 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,15 +318,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,79 +350,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,27 +364,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -398,19 +398,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,19 +512,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,49 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,13 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,67 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,21 +607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -633,15 +618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,17 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -704,16 +669,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,137 +722,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,9 +901,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,9 +924,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1244,7 +1247,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1305,13 +1308,13 @@
       <c r="F2" s="18">
         <v>0</v>
       </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="19">
-        <v>10</v>
-      </c>
-      <c r="I2" s="19">
+      <c r="G2" s="19">
+        <v>10</v>
+      </c>
+      <c r="H2" s="20">
+        <v>10</v>
+      </c>
+      <c r="I2" s="20">
         <v>16</v>
       </c>
       <c r="J2" s="18">
@@ -1320,7 +1323,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="12"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -1332,40 +1335,40 @@
       <c r="F3" s="18">
         <v>0</v>
       </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>16</v>
-      </c>
-      <c r="I3" s="19">
+      <c r="G3" s="22">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22">
+        <v>16</v>
+      </c>
+      <c r="I3" s="22">
         <v>23</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="22">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:10">
       <c r="A4" s="12"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="20">
         <v>0.15</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
       </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>10</v>
-      </c>
-      <c r="I4" s="19">
+      <c r="G4" s="19">
+        <v>10</v>
+      </c>
+      <c r="H4" s="20">
+        <v>10</v>
+      </c>
+      <c r="I4" s="20">
         <v>16</v>
       </c>
       <c r="J4" s="18">
@@ -1386,13 +1389,13 @@
       <c r="F5" s="18">
         <v>0</v>
       </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>10</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="G5" s="19">
+        <v>10</v>
+      </c>
+      <c r="H5" s="20">
+        <v>10</v>
+      </c>
+      <c r="I5" s="20">
         <v>16</v>
       </c>
       <c r="J5" s="18">
@@ -1413,13 +1416,13 @@
       <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>10</v>
-      </c>
-      <c r="I6" s="19">
+      <c r="G6" s="19">
+        <v>10</v>
+      </c>
+      <c r="H6" s="20">
+        <v>10</v>
+      </c>
+      <c r="I6" s="20">
         <v>16</v>
       </c>
       <c r="J6" s="18">
@@ -1428,26 +1431,26 @@
     </row>
     <row r="7" ht="15" spans="1:10">
       <c r="A7" s="12"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="20">
         <v>0.15</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>10</v>
-      </c>
-      <c r="I7" s="19">
-        <v>16</v>
+      <c r="G7" s="19">
+        <v>10</v>
+      </c>
+      <c r="H7" s="20">
+        <v>10</v>
+      </c>
+      <c r="I7" s="20">
+        <v>10</v>
       </c>
       <c r="J7" s="18">
         <v>16</v>
@@ -1467,25 +1470,25 @@
       <c r="F8" s="18">
         <v>0</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>10</v>
-      </c>
-      <c r="I8" s="19">
-        <v>10</v>
+      <c r="G8" s="19">
+        <v>10</v>
+      </c>
+      <c r="H8" s="20">
+        <v>10</v>
+      </c>
+      <c r="I8" s="20">
+        <v>16</v>
       </c>
       <c r="J8" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:10">
       <c r="A9" s="12"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="17">
@@ -1494,16 +1497,16 @@
       <c r="F9" s="18">
         <v>0</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <v>16</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="G9" s="22">
+        <v>10</v>
+      </c>
+      <c r="H9" s="22">
+        <v>16</v>
+      </c>
+      <c r="I9" s="22">
         <v>23</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="22">
         <v>30</v>
       </c>
     </row>
@@ -1515,48 +1518,48 @@
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="20">
         <v>0.15</v>
       </c>
       <c r="F10" s="18">
         <v>0</v>
       </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>10</v>
-      </c>
-      <c r="I10" s="19">
+      <c r="G10" s="19">
+        <v>10</v>
+      </c>
+      <c r="H10" s="20">
+        <v>10</v>
+      </c>
+      <c r="I10" s="20">
         <v>10</v>
       </c>
       <c r="J10" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" ht="15" spans="3:10">
-      <c r="C11" s="23">
+      <c r="C11" s="25">
         <v>163406</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="20">
         <v>0.12</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
       </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="G11" s="19">
         <v>12</v>
       </c>
-      <c r="I11" s="19">
+      <c r="H11" s="22">
+        <v>12</v>
+      </c>
+      <c r="I11" s="22">
         <v>20</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="22">
         <v>29</v>
       </c>
     </row>
@@ -1574,13 +1577,13 @@
       <c r="F12" s="18">
         <v>0</v>
       </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
-        <v>10</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="G12" s="19">
+        <v>10</v>
+      </c>
+      <c r="H12" s="20">
+        <v>10</v>
+      </c>
+      <c r="I12" s="20">
         <v>16</v>
       </c>
       <c r="J12" s="18">
@@ -1588,10 +1591,10 @@
       </c>
     </row>
     <row r="13" s="12" customFormat="1" ht="15" spans="3:10">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="17">
@@ -1600,39 +1603,39 @@
       <c r="F13" s="18">
         <v>0</v>
       </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="G13" s="22">
         <v>12</v>
       </c>
-      <c r="I13" s="19">
+      <c r="H13" s="22">
         <v>20</v>
       </c>
-      <c r="J13" s="26">
+      <c r="I13" s="22">
         <v>29</v>
       </c>
+      <c r="J13" s="22">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="15" spans="3:10">
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <v>0.1</v>
       </c>
       <c r="F14" s="18">
         <v>0</v>
       </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
+      <c r="G14" s="19">
         <v>15</v>
       </c>
-      <c r="I14" s="19">
+      <c r="H14" s="20">
+        <v>15</v>
+      </c>
+      <c r="I14" s="20">
         <v>15</v>
       </c>
       <c r="J14" s="18">
@@ -1640,62 +1643,62 @@
       </c>
     </row>
     <row r="15" s="11" customFormat="1" ht="15" spans="3:10">
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="20">
         <v>0.08</v>
       </c>
       <c r="F15" s="18">
         <v>0</v>
       </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="19">
+      <c r="G15" s="19">
         <v>18</v>
       </c>
-      <c r="I15" s="19">
+      <c r="H15" s="20">
         <v>18</v>
       </c>
-      <c r="J15" s="26">
+      <c r="I15" s="20">
+        <v>18</v>
+      </c>
+      <c r="J15" s="22">
         <v>31</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" ht="15" spans="3:10">
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="20">
         <v>0.15</v>
       </c>
       <c r="F16" s="18">
         <v>0</v>
       </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>10</v>
-      </c>
-      <c r="I16" s="19">
-        <v>16</v>
-      </c>
-      <c r="J16" s="26">
+      <c r="G16" s="19">
+        <v>10</v>
+      </c>
+      <c r="H16" s="22">
+        <v>16</v>
+      </c>
+      <c r="I16" s="22">
         <v>23</v>
       </c>
+      <c r="J16" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" ht="15" spans="3:10">
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="17">
@@ -1704,95 +1707,95 @@
       <c r="F17" s="18">
         <v>0</v>
       </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="G17" s="22">
         <v>12</v>
       </c>
-      <c r="I17" s="19">
+      <c r="H17" s="22">
         <v>20</v>
       </c>
-      <c r="J17" s="26">
+      <c r="I17" s="22">
         <v>29</v>
       </c>
+      <c r="J17" s="22">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" ht="15" spans="3:10">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="20">
         <v>0.15</v>
       </c>
       <c r="F18" s="18">
         <v>0</v>
       </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="19">
-        <v>10</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="G18" s="19">
+        <v>10</v>
+      </c>
+      <c r="H18" s="20">
+        <v>10</v>
+      </c>
+      <c r="I18" s="20">
         <v>10</v>
       </c>
       <c r="J18" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="20">
         <v>0.15</v>
       </c>
       <c r="F19" s="18">
         <v>0</v>
       </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>10</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="G19" s="19">
+        <v>10</v>
+      </c>
+      <c r="H19" s="20">
+        <v>10</v>
+      </c>
+      <c r="I19" s="20">
         <v>10</v>
       </c>
       <c r="J19" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="20">
         <v>0.15</v>
       </c>
       <c r="F20" s="18">
         <v>0</v>
       </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <v>10</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="G20" s="19">
+        <v>10</v>
+      </c>
+      <c r="H20" s="20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="20">
         <v>10</v>
       </c>
       <c r="J20" s="18">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -71,85 +71,91 @@
     <t>中欧价值智选回报A</t>
   </si>
   <si>
+    <t>001717</t>
+  </si>
+  <si>
+    <t>工银瑞信前沿医疗股票A</t>
+  </si>
+  <si>
+    <t>000991</t>
+  </si>
+  <si>
+    <t>工银瑞信战略转型主题股票A</t>
+  </si>
+  <si>
+    <t>519714</t>
+  </si>
+  <si>
+    <t>交银施罗德消费新驱动股票</t>
+  </si>
+  <si>
+    <t>兴全合润混合LOF</t>
+  </si>
+  <si>
+    <t>001070</t>
+  </si>
+  <si>
+    <t>建信信息产业股票</t>
+  </si>
+  <si>
+    <t>013310</t>
+  </si>
+  <si>
+    <t>华夏中证双创50</t>
+  </si>
+  <si>
+    <t>502000</t>
+  </si>
+  <si>
+    <t>西部利得中证500指数增强A</t>
+  </si>
+  <si>
+    <t>673100</t>
+  </si>
+  <si>
+    <t>西部利得沪深300指数增强A</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>西部利得量化成长混合A</t>
+  </si>
+  <si>
+    <t>014530</t>
+  </si>
+  <si>
+    <t>华夏MSCI中国A50</t>
+  </si>
+  <si>
+    <t>000594</t>
+  </si>
+  <si>
+    <t>大摩进取优选股票</t>
+  </si>
+  <si>
+    <t>005827</t>
+  </si>
+  <si>
+    <t>易方达蓝筹</t>
+  </si>
+  <si>
+    <t>260108</t>
+  </si>
+  <si>
+    <t>景顺长城</t>
+  </si>
+  <si>
+    <t>011102</t>
+  </si>
+  <si>
+    <t>天弘中证光伏产业指数A</t>
+  </si>
+  <si>
     <t>004997</t>
   </si>
   <si>
     <t>广发高端制造股票A</t>
-  </si>
-  <si>
-    <t>001717</t>
-  </si>
-  <si>
-    <t>工银瑞信前沿医疗股票A</t>
-  </si>
-  <si>
-    <t>000991</t>
-  </si>
-  <si>
-    <t>工银瑞信战略转型主题股票A</t>
-  </si>
-  <si>
-    <t>519714</t>
-  </si>
-  <si>
-    <t>交银施罗德消费新驱动股票</t>
-  </si>
-  <si>
-    <t>兴全合润混合LOF</t>
-  </si>
-  <si>
-    <t>001070</t>
-  </si>
-  <si>
-    <t>建信信息产业股票</t>
-  </si>
-  <si>
-    <t>013310</t>
-  </si>
-  <si>
-    <t>华夏中证双创50</t>
-  </si>
-  <si>
-    <t>502000</t>
-  </si>
-  <si>
-    <t>西部利得中证500指数增强A</t>
-  </si>
-  <si>
-    <t>673100</t>
-  </si>
-  <si>
-    <t>西部利得沪深300指数增强A</t>
-  </si>
-  <si>
-    <t>000006</t>
-  </si>
-  <si>
-    <t>西部利得量化成长混合A</t>
-  </si>
-  <si>
-    <t>014530</t>
-  </si>
-  <si>
-    <t>华夏MSCI中国A50</t>
-  </si>
-  <si>
-    <t>000594</t>
-  </si>
-  <si>
-    <t>大摩进取优选股票</t>
-  </si>
-  <si>
-    <t>005827</t>
-  </si>
-  <si>
-    <t>易方达蓝筹</t>
-  </si>
-  <si>
-    <t>260108</t>
-  </si>
-  <si>
-    <t>景顺长城</t>
   </si>
   <si>
     <t>000934</t>
@@ -169,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -211,11 +217,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="青禾"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="青禾"/>
@@ -225,6 +226,110 @@
       <sz val="12"/>
       <name val="青禾"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="青禾"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -235,112 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -370,6 +369,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -398,19 +404,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,163 +554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,15 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -642,6 +639,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,137 +728,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,50 +886,61 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1244,558 +1261,545 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="12" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="12" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="8" style="12" customWidth="1"/>
-    <col min="12" max="12" width="4.875" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="8" style="11" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="12"/>
+    <row r="1" spans="1:8">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:10">
-      <c r="A2" s="12"/>
-      <c r="C2" s="16" t="s">
+    <row r="2" ht="15" spans="1:8">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
+      <c r="C2" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>10</v>
+      </c>
+      <c r="F2" s="19">
+        <v>10</v>
       </c>
       <c r="G2" s="19">
-        <v>10</v>
-      </c>
-      <c r="H2" s="20">
-        <v>10</v>
-      </c>
-      <c r="I2" s="20">
-        <v>16</v>
-      </c>
-      <c r="J2" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="12"/>
-      <c r="C3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>10</v>
-      </c>
-      <c r="H3" s="22">
-        <v>16</v>
-      </c>
-      <c r="I3" s="22">
+      <c r="C3" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>10</v>
+      </c>
+      <c r="F3" s="21">
+        <v>16</v>
+      </c>
+      <c r="G3" s="21">
         <v>23</v>
       </c>
-      <c r="J3" s="22">
+      <c r="H3" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:10">
-      <c r="A4" s="12"/>
-      <c r="C4" s="23" t="s">
+    <row r="4" ht="15" spans="1:8">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
+      <c r="C4" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>10</v>
+      </c>
+      <c r="F4" s="19">
+        <v>10</v>
       </c>
       <c r="G4" s="19">
-        <v>10</v>
-      </c>
-      <c r="H4" s="20">
-        <v>10</v>
-      </c>
-      <c r="I4" s="20">
-        <v>16</v>
-      </c>
-      <c r="J4" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="12"/>
-      <c r="C5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:8">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
+      <c r="C5" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>10</v>
+      </c>
+      <c r="F5" s="19">
+        <v>10</v>
       </c>
       <c r="G5" s="19">
-        <v>10</v>
-      </c>
-      <c r="H5" s="20">
-        <v>10</v>
-      </c>
-      <c r="I5" s="20">
-        <v>16</v>
-      </c>
-      <c r="J5" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="12"/>
-      <c r="C6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:8">
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
+      <c r="C6" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>10</v>
+      </c>
+      <c r="F6" s="19">
+        <v>10</v>
       </c>
       <c r="G6" s="19">
-        <v>10</v>
-      </c>
-      <c r="H6" s="20">
-        <v>10</v>
-      </c>
-      <c r="I6" s="20">
-        <v>16</v>
-      </c>
-      <c r="J6" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="12"/>
-      <c r="C7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:8">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
+      <c r="C7" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19">
+        <v>10</v>
       </c>
       <c r="G7" s="19">
-        <v>10</v>
-      </c>
-      <c r="H7" s="20">
-        <v>10</v>
-      </c>
-      <c r="I7" s="20">
-        <v>10</v>
-      </c>
-      <c r="J7" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:10">
-      <c r="A8" s="12"/>
-      <c r="C8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:8">
+      <c r="A8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>10</v>
-      </c>
-      <c r="H8" s="20">
-        <v>10</v>
-      </c>
-      <c r="I8" s="20">
-        <v>16</v>
-      </c>
-      <c r="J8" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="12"/>
-      <c r="C9" s="25" t="s">
+      <c r="C8" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>10</v>
+      </c>
+      <c r="F8" s="21">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>23</v>
+      </c>
+      <c r="H8" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="22">
-        <v>10</v>
-      </c>
-      <c r="H9" s="22">
-        <v>16</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="C9" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>10</v>
+      </c>
+      <c r="G9" s="19">
+        <v>10</v>
+      </c>
+      <c r="H9" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="15" spans="1:8">
+      <c r="A10" s="23">
+        <v>163406</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>12</v>
+      </c>
+      <c r="F10" s="21">
+        <v>12</v>
+      </c>
+      <c r="G10" s="21">
+        <v>20</v>
+      </c>
+      <c r="H10" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:8">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>10</v>
+      </c>
+      <c r="F11" s="19">
+        <v>10</v>
+      </c>
+      <c r="G11" s="19">
+        <v>16</v>
+      </c>
+      <c r="H11" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="11" customFormat="1" ht="15" spans="1:8">
+      <c r="A12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>12</v>
+      </c>
+      <c r="F12" s="21">
+        <v>20</v>
+      </c>
+      <c r="G12" s="21">
+        <v>29</v>
+      </c>
+      <c r="H12" s="21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" ht="15" spans="1:8">
+      <c r="A13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>15</v>
+      </c>
+      <c r="G13" s="19">
+        <v>15</v>
+      </c>
+      <c r="H13" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="15" spans="1:8">
+      <c r="A14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>18</v>
+      </c>
+      <c r="F14" s="19">
+        <v>18</v>
+      </c>
+      <c r="G14" s="19">
+        <v>18</v>
+      </c>
+      <c r="H14" s="21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" ht="15" spans="1:8">
+      <c r="A15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>10</v>
+      </c>
+      <c r="F15" s="21">
+        <v>16</v>
+      </c>
+      <c r="G15" s="21">
         <v>23</v>
       </c>
-      <c r="J9" s="22">
+      <c r="H15" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="C10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="18" t="s">
+    <row r="16" ht="15" spans="1:8">
+      <c r="A16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>12</v>
+      </c>
+      <c r="F16" s="21">
+        <v>20</v>
+      </c>
+      <c r="G16" s="21">
+        <v>29</v>
+      </c>
+      <c r="H16" s="21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:8">
+      <c r="A17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>10</v>
+      </c>
+      <c r="G17" s="19">
+        <v>10</v>
+      </c>
+      <c r="H17" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>10</v>
+      </c>
+      <c r="G18" s="19">
+        <v>10</v>
+      </c>
+      <c r="H18" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>10</v>
+      </c>
+      <c r="G19" s="19">
+        <v>10</v>
+      </c>
+      <c r="H19" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" s="13" customFormat="1" spans="1:8">
+      <c r="A20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>15</v>
+      </c>
+      <c r="G20" s="28">
         <v>25</v>
       </c>
-      <c r="E10" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>10</v>
-      </c>
-      <c r="H10" s="20">
-        <v>10</v>
-      </c>
-      <c r="I10" s="20">
-        <v>10</v>
-      </c>
-      <c r="J10" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" s="11" customFormat="1" ht="15" spans="3:10">
-      <c r="C11" s="25">
-        <v>163406</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0.12</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>12</v>
-      </c>
-      <c r="H11" s="22">
-        <v>12</v>
-      </c>
-      <c r="I11" s="22">
-        <v>20</v>
-      </c>
-      <c r="J11" s="22">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:10">
-      <c r="A12" s="12"/>
-      <c r="C12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>10</v>
-      </c>
-      <c r="H12" s="20">
-        <v>10</v>
-      </c>
-      <c r="I12" s="20">
-        <v>16</v>
-      </c>
-      <c r="J12" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" s="12" customFormat="1" ht="15" spans="3:10">
-      <c r="C13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <v>12</v>
-      </c>
-      <c r="H13" s="22">
-        <v>20</v>
-      </c>
-      <c r="I13" s="22">
-        <v>29</v>
-      </c>
-      <c r="J13" s="22">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" s="11" customFormat="1" ht="15" spans="3:10">
-      <c r="C14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>15</v>
-      </c>
-      <c r="H14" s="20">
-        <v>15</v>
-      </c>
-      <c r="I14" s="20">
-        <v>15</v>
-      </c>
-      <c r="J14" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" s="11" customFormat="1" ht="15" spans="3:10">
-      <c r="C15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="20">
-        <v>0.08</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
-        <v>18</v>
-      </c>
-      <c r="H15" s="20">
-        <v>18</v>
-      </c>
-      <c r="I15" s="20">
-        <v>18</v>
-      </c>
-      <c r="J15" s="22">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" s="11" customFormat="1" ht="15" spans="3:10">
-      <c r="C16" s="23" t="s">
+      <c r="H20" s="28">
         <v>35</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>10</v>
-      </c>
-      <c r="H16" s="22">
-        <v>16</v>
-      </c>
-      <c r="I16" s="22">
-        <v>23</v>
-      </c>
-      <c r="J16" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="3:10">
-      <c r="C17" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22">
-        <v>12</v>
-      </c>
-      <c r="H17" s="22">
-        <v>20</v>
-      </c>
-      <c r="I17" s="22">
-        <v>29</v>
-      </c>
-      <c r="J17" s="22">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="3:10">
-      <c r="C18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
-        <v>10</v>
-      </c>
-      <c r="H18" s="20">
-        <v>10</v>
-      </c>
-      <c r="I18" s="20">
-        <v>10</v>
-      </c>
-      <c r="J18" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
-        <v>10</v>
-      </c>
-      <c r="H19" s="20">
-        <v>10</v>
-      </c>
-      <c r="I19" s="20">
-        <v>10</v>
-      </c>
-      <c r="J19" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
-        <v>10</v>
-      </c>
-      <c r="H20" s="20">
-        <v>10</v>
-      </c>
-      <c r="I20" s="20">
-        <v>10</v>
-      </c>
-      <c r="J20" s="18">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1879,10 +1883,10 @@
     </row>
     <row r="3" ht="17.25" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6">
         <v>0.15</v>
@@ -1983,10 +1987,10 @@
     </row>
     <row r="7" ht="17.25" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6">
         <v>0.15</v>
@@ -2009,10 +2013,10 @@
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>0.15</v>
@@ -2035,10 +2039,10 @@
     </row>
     <row r="9" ht="17.25" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>0.15</v>
@@ -2061,10 +2065,10 @@
     </row>
     <row r="10" ht="17.25" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <v>0.15</v>
@@ -2090,7 +2094,7 @@
         <v>163406</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8">
         <v>0.12</v>
@@ -2113,10 +2117,10 @@
     </row>
     <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3">
         <v>0.15</v>
@@ -2139,10 +2143,10 @@
     </row>
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8">
         <v>0.1</v>
@@ -2165,10 +2169,10 @@
     </row>
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="8">
         <v>0.08</v>
@@ -2191,10 +2195,10 @@
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8">
         <v>0.15</v>
@@ -2217,10 +2221,10 @@
     </row>
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
@@ -2269,10 +2273,10 @@
     </row>
     <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>0.15</v>
@@ -2295,10 +2299,10 @@
     </row>
     <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6">
         <v>0.15</v>
@@ -2321,10 +2325,10 @@
     </row>
     <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6">
         <v>0.15</v>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -858,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,8 +886,8 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,10 +933,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1011,7 +1008,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1264,22 +1261,22 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C19"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="5.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="8" style="11" customWidth="1"/>
-    <col min="10" max="10" width="4.875" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="2" max="2" width="27" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1516,7 +1513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="15" spans="1:8">
+    <row r="10" s="11" customFormat="1" ht="15" spans="1:8">
       <c r="A10" s="23">
         <v>163406</v>
       </c>
@@ -1568,7 +1565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="1" ht="15" spans="1:8">
+    <row r="12" s="12" customFormat="1" ht="15" spans="1:8">
       <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" ht="15" spans="1:8">
+    <row r="13" s="11" customFormat="1" ht="15" spans="1:8">
       <c r="A13" s="25" t="s">
         <v>29</v>
       </c>
@@ -1620,7 +1617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="15" spans="1:8">
+    <row r="14" s="11" customFormat="1" ht="15" spans="1:8">
       <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
@@ -1646,7 +1643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" ht="15" spans="1:8">
+    <row r="15" s="11" customFormat="1" ht="15" spans="1:8">
       <c r="A15" s="22" t="s">
         <v>33</v>
       </c>
@@ -1777,28 +1774,28 @@
       </c>
     </row>
     <row r="20" s="13" customFormat="1" spans="1:8">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>0.1</v>
       </c>
       <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="29">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
+      <c r="E20" s="28">
         <v>15</v>
       </c>
-      <c r="G20" s="28">
+      <c r="F20" s="27">
+        <v>15</v>
+      </c>
+      <c r="G20" s="27">
         <v>25</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>35</v>
       </c>
     </row>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -858,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,6 +911,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1261,7 +1264,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1348,17 +1351,17 @@
         <v>10</v>
       </c>
       <c r="F3" s="21">
-        <v>16</v>
-      </c>
-      <c r="G3" s="21">
+        <v>10</v>
+      </c>
+      <c r="G3" s="22">
+        <v>16</v>
+      </c>
+      <c r="H3" s="22">
         <v>23</v>
       </c>
-      <c r="H3" s="21">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" ht="15" spans="1:8">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -1448,24 +1451,24 @@
       <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="19">
-        <v>10</v>
-      </c>
-      <c r="F7" s="19">
-        <v>10</v>
-      </c>
-      <c r="G7" s="19">
-        <v>16</v>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>10</v>
+      </c>
+      <c r="G7" s="18">
+        <v>10</v>
       </c>
       <c r="H7" s="18">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:8">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="17">
@@ -1478,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="21">
-        <v>16</v>
-      </c>
-      <c r="G8" s="21">
+        <v>10</v>
+      </c>
+      <c r="G8" s="22">
+        <v>16</v>
+      </c>
+      <c r="H8" s="22">
         <v>23</v>
-      </c>
-      <c r="H8" s="21">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1503,10 +1506,10 @@
       <c r="E9" s="18">
         <v>0</v>
       </c>
-      <c r="F9" s="19">
-        <v>10</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="F9" s="18">
+        <v>10</v>
+      </c>
+      <c r="G9" s="18">
         <v>10</v>
       </c>
       <c r="H9" s="18">
@@ -1514,10 +1517,10 @@
       </c>
     </row>
     <row r="10" s="11" customFormat="1" ht="15" spans="1:8">
-      <c r="A10" s="23">
+      <c r="A10" s="24">
         <v>163406</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="19">
@@ -1532,11 +1535,11 @@
       <c r="F10" s="21">
         <v>12</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="22">
         <v>20</v>
       </c>
-      <c r="H10" s="21">
-        <v>29</v>
+      <c r="H10" s="22">
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:8">
@@ -1559,17 +1562,17 @@
         <v>10</v>
       </c>
       <c r="G11" s="19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H11" s="18">
         <v>16</v>
       </c>
     </row>
     <row r="12" s="12" customFormat="1" ht="15" spans="1:8">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="17">
@@ -1578,21 +1581,21 @@
       <c r="D12" s="18">
         <v>0</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="22">
         <v>12</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="22">
         <v>20</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="22">
         <v>29</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="22">
         <v>37</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="15" spans="1:8">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1607,10 +1610,10 @@
       <c r="E13" s="18">
         <v>0</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>15</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>15</v>
       </c>
       <c r="H13" s="18">
@@ -1618,10 +1621,10 @@
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="15" spans="1:8">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="19">
@@ -1639,12 +1642,12 @@
       <c r="G14" s="19">
         <v>18</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="22">
         <v>31</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" ht="15" spans="1:8">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -1660,20 +1663,20 @@
         <v>10</v>
       </c>
       <c r="F15" s="21">
-        <v>16</v>
-      </c>
-      <c r="G15" s="21">
+        <v>10</v>
+      </c>
+      <c r="G15" s="22">
+        <v>16</v>
+      </c>
+      <c r="H15" s="22">
         <v>23</v>
       </c>
-      <c r="H15" s="21">
-        <v>30</v>
-      </c>
     </row>
     <row r="16" ht="15" spans="1:8">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="17">
@@ -1682,21 +1685,21 @@
       <c r="D16" s="18">
         <v>0</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="22">
         <v>12</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="22">
         <v>20</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="22">
         <v>29</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="22">
         <v>37</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:8">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -1722,7 +1725,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -1748,7 +1751,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -1774,29 +1777,29 @@
       </c>
     </row>
     <row r="20" s="13" customFormat="1" spans="1:8">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="28">
         <v>0.1</v>
       </c>
       <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="29">
         <v>15</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="28">
         <v>15</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="28">
         <v>25</v>
       </c>
-      <c r="H20" s="27">
-        <v>35</v>
+      <c r="H20" s="28">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -211,6 +211,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="青禾"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="青禾"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="青禾"/>
@@ -218,16 +228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="青禾"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="青禾"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="青禾"/>
       <charset val="134"/>
@@ -858,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,60 +886,63 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1264,463 +1267,463 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27" style="12" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="5.875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8" style="12" customWidth="1"/>
-    <col min="10" max="10" width="4.875" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27" style="17" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="17" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="8" style="17" customWidth="1"/>
+    <col min="10" max="10" width="4.875" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19">
-        <v>10</v>
-      </c>
-      <c r="F2" s="19">
-        <v>10</v>
-      </c>
-      <c r="G2" s="19">
-        <v>16</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="C2" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>10</v>
+      </c>
+      <c r="F2" s="22">
+        <v>10</v>
+      </c>
+      <c r="G2" s="22">
+        <v>16</v>
+      </c>
+      <c r="H2" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21">
-        <v>10</v>
-      </c>
-      <c r="F3" s="21">
-        <v>10</v>
-      </c>
-      <c r="G3" s="22">
-        <v>16</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="C3" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15">
+        <v>16</v>
+      </c>
+      <c r="G3" s="15">
         <v>23</v>
       </c>
+      <c r="H3" s="15">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" ht="15" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>10</v>
-      </c>
-      <c r="F4" s="19">
-        <v>10</v>
-      </c>
-      <c r="G4" s="19">
-        <v>16</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="C4" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+      <c r="F4" s="22">
+        <v>10</v>
+      </c>
+      <c r="G4" s="22">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>10</v>
-      </c>
-      <c r="F5" s="19">
-        <v>10</v>
-      </c>
-      <c r="G5" s="19">
-        <v>16</v>
-      </c>
-      <c r="H5" s="18">
+      <c r="C5" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>10</v>
+      </c>
+      <c r="F5" s="22">
+        <v>10</v>
+      </c>
+      <c r="G5" s="22">
+        <v>16</v>
+      </c>
+      <c r="H5" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:8">
-      <c r="A6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
-        <v>10</v>
-      </c>
-      <c r="F6" s="19">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19">
-        <v>16</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="C6" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22">
+        <v>10</v>
+      </c>
+      <c r="G6" s="22">
+        <v>16</v>
+      </c>
+      <c r="H6" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:8">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>10</v>
-      </c>
-      <c r="G7" s="18">
-        <v>10</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="C7" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="G7" s="14">
+        <v>10</v>
+      </c>
+      <c r="H7" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:8">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
-        <v>10</v>
-      </c>
-      <c r="F8" s="21">
-        <v>10</v>
-      </c>
-      <c r="G8" s="22">
-        <v>16</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="C8" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>10</v>
+      </c>
+      <c r="F8" s="15">
+        <v>16</v>
+      </c>
+      <c r="G8" s="15">
         <v>23</v>
       </c>
+      <c r="H8" s="15">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>10</v>
-      </c>
-      <c r="G9" s="18">
-        <v>10</v>
-      </c>
-      <c r="H9" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" s="11" customFormat="1" ht="15" spans="1:8">
-      <c r="A10" s="24">
+      <c r="C9" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>10</v>
+      </c>
+      <c r="G9" s="26">
+        <v>16</v>
+      </c>
+      <c r="H9" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="16" customFormat="1" ht="15" spans="1:8">
+      <c r="A10" s="11">
         <v>163406</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="22">
         <v>0.12</v>
       </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
         <v>12</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="22">
         <v>12</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="15">
         <v>20</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>10</v>
-      </c>
-      <c r="F11" s="19">
-        <v>10</v>
-      </c>
-      <c r="G11" s="19">
-        <v>10</v>
-      </c>
-      <c r="H11" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" s="12" customFormat="1" ht="15" spans="1:8">
-      <c r="A12" s="24" t="s">
+      <c r="C11" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22">
+        <v>10</v>
+      </c>
+      <c r="G11" s="22">
+        <v>16</v>
+      </c>
+      <c r="H11" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="17" customFormat="1" ht="15" spans="1:8">
+      <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <v>0.12</v>
       </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
         <v>12</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="15">
         <v>20</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="15">
         <v>29</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="15">
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" ht="15" spans="1:8">
-      <c r="A13" s="26" t="s">
+    <row r="13" s="16" customFormat="1" ht="15" spans="1:8">
+      <c r="A13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>0.1</v>
       </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
         <v>15</v>
       </c>
-      <c r="G13" s="18">
-        <v>15</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="G13" s="14">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="1" ht="15" spans="1:8">
-      <c r="A14" s="24" t="s">
+      <c r="H13" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" s="16" customFormat="1" ht="15" spans="1:8">
+      <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="22">
         <v>0.08</v>
       </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
         <v>18</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="22">
         <v>18</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="22">
         <v>18</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="15">
         <v>31</v>
       </c>
     </row>
-    <row r="15" s="11" customFormat="1" ht="15" spans="1:8">
-      <c r="A15" s="23" t="s">
+    <row r="15" s="16" customFormat="1" ht="15" spans="1:8">
+      <c r="A15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19">
-        <v>10</v>
-      </c>
-      <c r="F15" s="21">
-        <v>10</v>
-      </c>
-      <c r="G15" s="22">
-        <v>16</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="C15" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>10</v>
+      </c>
+      <c r="F15" s="15">
+        <v>16</v>
+      </c>
+      <c r="G15" s="15">
         <v>23</v>
       </c>
+      <c r="H15" s="15">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" ht="15" spans="1:8">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>0.12</v>
       </c>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
         <v>12</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="15">
         <v>20</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="15">
         <v>29</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="15">
         <v>37</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:8">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19">
-        <v>10</v>
-      </c>
-      <c r="G17" s="19">
-        <v>10</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="C17" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14">
+        <v>10</v>
+      </c>
+      <c r="H17" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1728,25 +1731,25 @@
       <c r="A18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19">
-        <v>10</v>
-      </c>
-      <c r="G18" s="19">
-        <v>10</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="C18" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14">
+        <v>10</v>
+      </c>
+      <c r="H18" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1754,30 +1757,30 @@
       <c r="A19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19">
-        <v>10</v>
-      </c>
-      <c r="G19" s="19">
-        <v>10</v>
-      </c>
-      <c r="H19" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" s="13" customFormat="1" spans="1:8">
-      <c r="A20" s="30" t="s">
+      <c r="C19" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14">
+        <v>10</v>
+      </c>
+      <c r="H19" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" s="18" customFormat="1" spans="1:8">
+      <c r="A20" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -1786,19 +1789,19 @@
       <c r="C20" s="28">
         <v>0.1</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="14">
         <v>0</v>
       </c>
       <c r="E20" s="29">
         <v>15</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="30">
         <v>15</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="30">
         <v>25</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="30">
         <v>25</v>
       </c>
     </row>
@@ -1812,10 +1815,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2349,6 +2352,32 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21" ht="15" spans="1:8">
+      <c r="A21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>12</v>
+      </c>
+      <c r="F21" s="15">
+        <v>20</v>
+      </c>
+      <c r="G21" s="15">
+        <v>29</v>
+      </c>
+      <c r="H21" s="15">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -918,6 +918,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,9 +928,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1331,14 +1331,14 @@
         <v>10</v>
       </c>
       <c r="G2" s="22">
+        <v>10</v>
+      </c>
+      <c r="H2" s="23">
         <v>16</v>
       </c>
-      <c r="H2" s="14">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1364,7 +1364,7 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:8">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -1383,9 +1383,9 @@
         <v>10</v>
       </c>
       <c r="G4" s="22">
-        <v>16</v>
-      </c>
-      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+      <c r="H4" s="23">
         <v>16</v>
       </c>
     </row>
@@ -1409,9 +1409,9 @@
         <v>10</v>
       </c>
       <c r="G5" s="22">
-        <v>16</v>
-      </c>
-      <c r="H5" s="14">
+        <v>10</v>
+      </c>
+      <c r="H5" s="23">
         <v>16</v>
       </c>
     </row>
@@ -1435,14 +1435,14 @@
         <v>10</v>
       </c>
       <c r="G6" s="22">
+        <v>10</v>
+      </c>
+      <c r="H6" s="23">
         <v>16</v>
       </c>
-      <c r="H6" s="14">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" ht="15" spans="1:8">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1464,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="14">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:8">
@@ -1494,28 +1494,28 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26">
-        <v>10</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="C9" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>10</v>
+      </c>
+      <c r="G9" s="15">
         <v>16</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1535,11 +1535,11 @@
       <c r="E10" s="14">
         <v>12</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="15">
         <v>12</v>
       </c>
       <c r="G10" s="15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H10" s="15">
         <v>20</v>
@@ -1565,9 +1565,9 @@
         <v>10</v>
       </c>
       <c r="G11" s="22">
-        <v>16</v>
-      </c>
-      <c r="H11" s="14">
+        <v>10</v>
+      </c>
+      <c r="H11" s="23">
         <v>16</v>
       </c>
     </row>
@@ -1594,11 +1594,11 @@
         <v>29</v>
       </c>
       <c r="H12" s="15">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" s="16" customFormat="1" ht="15" spans="1:8">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -1617,7 +1617,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H13" s="14">
         <v>25</v>
@@ -1650,7 +1650,7 @@
       </c>
     </row>
     <row r="15" s="16" customFormat="1" ht="15" spans="1:8">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -1698,11 +1698,11 @@
         <v>29</v>
       </c>
       <c r="H16" s="15">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:8">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -1724,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="14">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1750,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="14">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1776,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="14">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" s="18" customFormat="1" spans="1:8">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -858,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,10 +912,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,25 +921,31 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,7 +1017,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1267,7 +1270,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1315,16 +1318,16 @@
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="13">
         <v>0.15</v>
       </c>
       <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
+        <v>10</v>
+      </c>
+      <c r="E2" s="22">
         <v>10</v>
       </c>
       <c r="F2" s="22">
@@ -1333,12 +1336,12 @@
       <c r="G2" s="22">
         <v>10</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1347,19 +1350,19 @@
       <c r="C3" s="13">
         <v>0.15</v>
       </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>10</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="15">
         <v>16</v>
       </c>
-      <c r="G3" s="15">
-        <v>23</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="E3" s="24">
+        <v>10</v>
+      </c>
+      <c r="F3" s="24">
+        <v>10</v>
+      </c>
+      <c r="G3" s="24">
+        <v>23</v>
+      </c>
+      <c r="H3" s="24">
         <v>23</v>
       </c>
     </row>
@@ -1374,23 +1377,23 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="22">
         <v>10</v>
       </c>
       <c r="F4" s="22">
         <v>10</v>
       </c>
-      <c r="G4" s="22">
-        <v>10</v>
-      </c>
-      <c r="H4" s="23">
+      <c r="G4" s="26">
+        <v>10</v>
+      </c>
+      <c r="H4" s="26">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1400,23 +1403,23 @@
         <v>0.15</v>
       </c>
       <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22">
         <v>10</v>
       </c>
       <c r="F5" s="22">
         <v>10</v>
       </c>
-      <c r="G5" s="22">
-        <v>10</v>
-      </c>
-      <c r="H5" s="23">
+      <c r="G5" s="26">
+        <v>10</v>
+      </c>
+      <c r="H5" s="26">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:8">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1425,45 +1428,45 @@
       <c r="C6" s="13">
         <v>0.15</v>
       </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="15">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22">
         <v>10</v>
       </c>
       <c r="F6" s="22">
         <v>10</v>
       </c>
-      <c r="G6" s="22">
-        <v>10</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="G6" s="26">
+        <v>10</v>
+      </c>
+      <c r="H6" s="26">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:8">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="24">
         <v>0.15</v>
       </c>
       <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>10</v>
-      </c>
-      <c r="G7" s="14">
-        <v>10</v>
-      </c>
-      <c r="H7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="24">
+        <v>10</v>
+      </c>
+      <c r="F7" s="24">
+        <v>10</v>
+      </c>
+      <c r="G7" s="24">
+        <v>10</v>
+      </c>
+      <c r="H7" s="24">
         <v>10</v>
       </c>
     </row>
@@ -1477,19 +1480,19 @@
       <c r="C8" s="13">
         <v>0.15</v>
       </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>10</v>
+      <c r="D8" s="15">
+        <v>23</v>
+      </c>
+      <c r="E8" s="15">
+        <v>16</v>
       </c>
       <c r="F8" s="15">
-        <v>16</v>
-      </c>
-      <c r="G8" s="15">
-        <v>23</v>
-      </c>
-      <c r="H8" s="15">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24">
+        <v>23</v>
+      </c>
+      <c r="H8" s="24">
         <v>23</v>
       </c>
     </row>
@@ -1503,50 +1506,50 @@
       <c r="C9" s="22">
         <v>0.15</v>
       </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>10</v>
-      </c>
-      <c r="G9" s="15">
+      <c r="D9" s="15">
         <v>16</v>
       </c>
-      <c r="H9" s="15">
+      <c r="E9" s="24">
+        <v>10</v>
+      </c>
+      <c r="F9" s="24">
+        <v>10</v>
+      </c>
+      <c r="G9" s="24">
         <v>16</v>
       </c>
+      <c r="H9" s="24">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" s="16" customFormat="1" ht="15" spans="1:8">
-      <c r="A10" s="11">
+      <c r="A10" s="28">
         <v>163406</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22">
         <v>0.12</v>
       </c>
       <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
         <v>12</v>
       </c>
-      <c r="F10" s="15">
+      <c r="E10" s="24">
         <v>12</v>
       </c>
-      <c r="G10" s="15">
+      <c r="F10" s="24">
         <v>12</v>
       </c>
-      <c r="H10" s="15">
+      <c r="G10" s="24">
+        <v>12</v>
+      </c>
+      <c r="H10" s="24">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1556,18 +1559,18 @@
         <v>0.15</v>
       </c>
       <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
+        <v>10</v>
+      </c>
+      <c r="E11" s="22">
         <v>10</v>
       </c>
       <c r="F11" s="22">
         <v>10</v>
       </c>
-      <c r="G11" s="22">
-        <v>10</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="G11" s="26">
+        <v>10</v>
+      </c>
+      <c r="H11" s="26">
         <v>16</v>
       </c>
     </row>
@@ -1581,45 +1584,45 @@
       <c r="C12" s="13">
         <v>0.12</v>
       </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="15">
+        <v>29</v>
+      </c>
+      <c r="E12" s="15">
+        <v>20</v>
+      </c>
+      <c r="F12" s="15">
         <v>12</v>
       </c>
-      <c r="F12" s="15">
-        <v>20</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="G12" s="24">
         <v>29</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="24">
         <v>29</v>
       </c>
     </row>
     <row r="13" s="16" customFormat="1" ht="15" spans="1:8">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="24">
         <v>0.1</v>
       </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="D13" s="15">
+        <v>25</v>
+      </c>
+      <c r="E13" s="24">
         <v>15</v>
       </c>
-      <c r="G13" s="14">
+      <c r="F13" s="24">
         <v>15</v>
       </c>
-      <c r="H13" s="14">
+      <c r="G13" s="24">
+        <v>15</v>
+      </c>
+      <c r="H13" s="24">
         <v>25</v>
       </c>
     </row>
@@ -1633,45 +1636,45 @@
       <c r="C14" s="22">
         <v>0.08</v>
       </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="15">
+        <v>31</v>
+      </c>
+      <c r="E14" s="22">
         <v>18</v>
       </c>
       <c r="F14" s="22">
         <v>18</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="26">
         <v>18</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="24">
         <v>31</v>
       </c>
     </row>
     <row r="15" s="16" customFormat="1" ht="15" spans="1:8">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="22">
         <v>0.15</v>
       </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>10</v>
+      <c r="D15" s="15">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15">
+        <v>16</v>
       </c>
       <c r="F15" s="15">
-        <v>16</v>
-      </c>
-      <c r="G15" s="15">
-        <v>23</v>
-      </c>
-      <c r="H15" s="15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="24">
+        <v>23</v>
+      </c>
+      <c r="H15" s="24">
         <v>23</v>
       </c>
     </row>
@@ -1685,114 +1688,114 @@
       <c r="C16" s="13">
         <v>0.12</v>
       </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="15">
+        <v>29</v>
+      </c>
+      <c r="E16" s="15">
+        <v>20</v>
+      </c>
+      <c r="F16" s="15">
         <v>12</v>
       </c>
-      <c r="F16" s="15">
-        <v>20</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="G16" s="24">
         <v>29</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="24">
         <v>29</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:8">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="24">
         <v>0.15</v>
       </c>
       <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <v>10</v>
-      </c>
-      <c r="G17" s="14">
-        <v>10</v>
-      </c>
-      <c r="H17" s="14">
+        <v>10</v>
+      </c>
+      <c r="E17" s="24">
+        <v>10</v>
+      </c>
+      <c r="F17" s="24">
+        <v>10</v>
+      </c>
+      <c r="G17" s="24">
+        <v>10</v>
+      </c>
+      <c r="H17" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="24">
         <v>0.15</v>
       </c>
       <c r="D18" s="14">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14">
-        <v>10</v>
-      </c>
-      <c r="G18" s="14">
-        <v>10</v>
-      </c>
-      <c r="H18" s="14">
+        <v>10</v>
+      </c>
+      <c r="E18" s="24">
+        <v>10</v>
+      </c>
+      <c r="F18" s="24">
+        <v>10</v>
+      </c>
+      <c r="G18" s="24">
+        <v>10</v>
+      </c>
+      <c r="H18" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="24">
         <v>0.15</v>
       </c>
       <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
-        <v>10</v>
-      </c>
-      <c r="G19" s="14">
-        <v>10</v>
-      </c>
-      <c r="H19" s="14">
+        <v>10</v>
+      </c>
+      <c r="E19" s="24">
+        <v>10</v>
+      </c>
+      <c r="F19" s="24">
+        <v>10</v>
+      </c>
+      <c r="G19" s="24">
+        <v>10</v>
+      </c>
+      <c r="H19" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="20" s="18" customFormat="1" spans="1:8">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="31">
         <v>0.1</v>
       </c>
-      <c r="D20" s="14">
-        <v>0</v>
-      </c>
-      <c r="E20" s="29">
+      <c r="D20" s="15">
+        <v>25</v>
+      </c>
+      <c r="E20" s="30">
         <v>15</v>
       </c>
       <c r="F20" s="30">

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -858,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,19 +921,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,7 +1261,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1350,24 +1341,24 @@
       <c r="C3" s="13">
         <v>0.15</v>
       </c>
-      <c r="D3" s="15">
-        <v>16</v>
-      </c>
-      <c r="E3" s="24">
-        <v>10</v>
-      </c>
-      <c r="F3" s="24">
-        <v>10</v>
-      </c>
-      <c r="G3" s="24">
-        <v>23</v>
-      </c>
-      <c r="H3" s="24">
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="22">
+        <v>10</v>
+      </c>
+      <c r="F3" s="22">
+        <v>10</v>
+      </c>
+      <c r="G3" s="22">
+        <v>23</v>
+      </c>
+      <c r="H3" s="22">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:8">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -1385,15 +1376,15 @@
       <c r="F4" s="22">
         <v>10</v>
       </c>
-      <c r="G4" s="26">
-        <v>10</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="G4" s="22">
+        <v>10</v>
+      </c>
+      <c r="H4" s="22">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:8">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1411,15 +1402,15 @@
       <c r="F5" s="22">
         <v>10</v>
       </c>
-      <c r="G5" s="26">
-        <v>10</v>
-      </c>
-      <c r="H5" s="26">
+      <c r="G5" s="22">
+        <v>10</v>
+      </c>
+      <c r="H5" s="22">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:8">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1428,8 +1419,8 @@
       <c r="C6" s="13">
         <v>0.15</v>
       </c>
-      <c r="D6" s="15">
-        <v>16</v>
+      <c r="D6" s="14">
+        <v>10</v>
       </c>
       <c r="E6" s="22">
         <v>10</v>
@@ -1437,10 +1428,10 @@
       <c r="F6" s="22">
         <v>10</v>
       </c>
-      <c r="G6" s="26">
-        <v>10</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="G6" s="22">
+        <v>10</v>
+      </c>
+      <c r="H6" s="22">
         <v>16</v>
       </c>
     </row>
@@ -1451,22 +1442,22 @@
       <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>0.15</v>
       </c>
       <c r="D7" s="14">
         <v>10</v>
       </c>
-      <c r="E7" s="24">
-        <v>10</v>
-      </c>
-      <c r="F7" s="24">
-        <v>10</v>
-      </c>
-      <c r="G7" s="24">
-        <v>10</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="E7" s="22">
+        <v>10</v>
+      </c>
+      <c r="F7" s="22">
+        <v>10</v>
+      </c>
+      <c r="G7" s="22">
+        <v>10</v>
+      </c>
+      <c r="H7" s="22">
         <v>10</v>
       </c>
     </row>
@@ -1489,10 +1480,10 @@
       <c r="F8" s="15">
         <v>10</v>
       </c>
-      <c r="G8" s="24">
-        <v>23</v>
-      </c>
-      <c r="H8" s="24">
+      <c r="G8" s="22">
+        <v>23</v>
+      </c>
+      <c r="H8" s="22">
         <v>23</v>
       </c>
     </row>
@@ -1506,27 +1497,27 @@
       <c r="C9" s="22">
         <v>0.15</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22">
+        <v>10</v>
+      </c>
+      <c r="F9" s="22">
+        <v>10</v>
+      </c>
+      <c r="G9" s="22">
         <v>16</v>
       </c>
-      <c r="E9" s="24">
-        <v>10</v>
-      </c>
-      <c r="F9" s="24">
-        <v>10</v>
-      </c>
-      <c r="G9" s="24">
+      <c r="H9" s="22">
         <v>16</v>
       </c>
-      <c r="H9" s="24">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" s="16" customFormat="1" ht="15" spans="1:8">
-      <c r="A10" s="28">
+      <c r="A10" s="24">
         <v>163406</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22">
@@ -1535,21 +1526,21 @@
       <c r="D10" s="14">
         <v>12</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>12</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>12</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>12</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1567,10 +1558,10 @@
       <c r="F11" s="22">
         <v>10</v>
       </c>
-      <c r="G11" s="26">
-        <v>10</v>
-      </c>
-      <c r="H11" s="26">
+      <c r="G11" s="22">
+        <v>10</v>
+      </c>
+      <c r="H11" s="22">
         <v>16</v>
       </c>
     </row>
@@ -1593,10 +1584,10 @@
       <c r="F12" s="15">
         <v>12</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <v>29</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>29</v>
       </c>
     </row>
@@ -1607,22 +1598,22 @@
       <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>0.1</v>
       </c>
-      <c r="D13" s="15">
-        <v>25</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="D13" s="14">
         <v>15</v>
       </c>
-      <c r="F13" s="24">
+      <c r="E13" s="22">
         <v>15</v>
       </c>
-      <c r="G13" s="24">
+      <c r="F13" s="22">
         <v>15</v>
       </c>
-      <c r="H13" s="24">
+      <c r="G13" s="22">
+        <v>15</v>
+      </c>
+      <c r="H13" s="22">
         <v>25</v>
       </c>
     </row>
@@ -1636,8 +1627,8 @@
       <c r="C14" s="22">
         <v>0.08</v>
       </c>
-      <c r="D14" s="15">
-        <v>31</v>
+      <c r="D14" s="14">
+        <v>18</v>
       </c>
       <c r="E14" s="22">
         <v>18</v>
@@ -1645,10 +1636,10 @@
       <c r="F14" s="22">
         <v>18</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="22">
         <v>18</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>31</v>
       </c>
     </row>
@@ -1671,10 +1662,10 @@
       <c r="F15" s="15">
         <v>10</v>
       </c>
-      <c r="G15" s="24">
-        <v>23</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="G15" s="22">
+        <v>23</v>
+      </c>
+      <c r="H15" s="22">
         <v>23</v>
       </c>
     </row>
@@ -1697,10 +1688,10 @@
       <c r="F16" s="15">
         <v>12</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <v>29</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <v>29</v>
       </c>
     </row>
@@ -1711,100 +1702,100 @@
       <c r="B17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>0.15</v>
       </c>
       <c r="D17" s="14">
         <v>10</v>
       </c>
-      <c r="E17" s="24">
-        <v>10</v>
-      </c>
-      <c r="F17" s="24">
-        <v>10</v>
-      </c>
-      <c r="G17" s="24">
-        <v>10</v>
-      </c>
-      <c r="H17" s="24">
+      <c r="E17" s="22">
+        <v>10</v>
+      </c>
+      <c r="F17" s="22">
+        <v>10</v>
+      </c>
+      <c r="G17" s="22">
+        <v>10</v>
+      </c>
+      <c r="H17" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <v>0.15</v>
       </c>
       <c r="D18" s="14">
         <v>10</v>
       </c>
-      <c r="E18" s="24">
-        <v>10</v>
-      </c>
-      <c r="F18" s="24">
-        <v>10</v>
-      </c>
-      <c r="G18" s="24">
-        <v>10</v>
-      </c>
-      <c r="H18" s="24">
+      <c r="E18" s="22">
+        <v>10</v>
+      </c>
+      <c r="F18" s="22">
+        <v>10</v>
+      </c>
+      <c r="G18" s="22">
+        <v>10</v>
+      </c>
+      <c r="H18" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>0.15</v>
       </c>
       <c r="D19" s="14">
         <v>10</v>
       </c>
-      <c r="E19" s="24">
-        <v>10</v>
-      </c>
-      <c r="F19" s="24">
-        <v>10</v>
-      </c>
-      <c r="G19" s="24">
-        <v>10</v>
-      </c>
-      <c r="H19" s="24">
+      <c r="E19" s="22">
+        <v>10</v>
+      </c>
+      <c r="F19" s="22">
+        <v>10</v>
+      </c>
+      <c r="G19" s="22">
+        <v>10</v>
+      </c>
+      <c r="H19" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="20" s="18" customFormat="1" spans="1:8">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="28">
         <v>0.1</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
+        <v>15</v>
+      </c>
+      <c r="E20" s="27">
+        <v>15</v>
+      </c>
+      <c r="F20" s="27">
+        <v>15</v>
+      </c>
+      <c r="G20" s="27">
         <v>25</v>
       </c>
-      <c r="E20" s="30">
-        <v>15</v>
-      </c>
-      <c r="F20" s="30">
-        <v>15</v>
-      </c>
-      <c r="G20" s="30">
-        <v>25</v>
-      </c>
-      <c r="H20" s="30">
+      <c r="H20" s="27">
         <v>25</v>
       </c>
     </row>

--- a/data/Invest_FundList.xlsx
+++ b/data/Invest_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1783,8 +1783,8 @@
       <c r="C20" s="28">
         <v>0.1</v>
       </c>
-      <c r="D20" s="14">
-        <v>15</v>
+      <c r="D20" s="15">
+        <v>25</v>
       </c>
       <c r="E20" s="27">
         <v>15</v>
